--- a/@data/2021.xlsx
+++ b/@data/2021.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99814CB-1C19-4F10-9672-2381FFAFD6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE253BD-96E8-4F47-BBFE-C58272E8DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="新建文本文档" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="新建文本文档_1" localSheetId="0">Sheet1!$A$254:$F$271</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +28,25 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{5BAA35F0-B586-4C14-B4F9-224FA1B56AF4}" name="新建文本文档1" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\projects\gitee\shawroger\gaokao\ocr\temp\新建文本文档.txt" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="651">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1924,6 +1945,352 @@
   <si>
     <t>合肥工业大学（宣城）</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭浩男</t>
+  </si>
+  <si>
+    <t>上海外国语大学</t>
+  </si>
+  <si>
+    <t>外交学(双学位)</t>
+  </si>
+  <si>
+    <t>徐成杰</t>
+  </si>
+  <si>
+    <t>邹静</t>
+  </si>
+  <si>
+    <t>南京工业大学</t>
+  </si>
+  <si>
+    <t>药学类</t>
+  </si>
+  <si>
+    <t>汪薇</t>
+  </si>
+  <si>
+    <t>哈尔滨医科大学</t>
+  </si>
+  <si>
+    <t>生物信息学</t>
+  </si>
+  <si>
+    <t>周鼎杰</t>
+  </si>
+  <si>
+    <t>胡义伟</t>
+  </si>
+  <si>
+    <t>城乡规划</t>
+  </si>
+  <si>
+    <t>周亚欣</t>
+  </si>
+  <si>
+    <t>上海海洋大学</t>
+  </si>
+  <si>
+    <t>生物制药</t>
+  </si>
+  <si>
+    <t>李若妍</t>
+  </si>
+  <si>
+    <t>华南农业大学</t>
+  </si>
+  <si>
+    <t>陈佳慧</t>
+  </si>
+  <si>
+    <t>数学与应用数学(师范)</t>
+  </si>
+  <si>
+    <t>陈志宇</t>
+  </si>
+  <si>
+    <t>上海师范大学</t>
+  </si>
+  <si>
+    <t>高岳勋珂</t>
+  </si>
+  <si>
+    <t>江西理工大学</t>
+  </si>
+  <si>
+    <t>虚拟现实技术</t>
+  </si>
+  <si>
+    <t>章汉青</t>
+  </si>
+  <si>
+    <t>胡梦雪</t>
+  </si>
+  <si>
+    <t>福建农林大学</t>
+  </si>
+  <si>
+    <t>林学类</t>
+  </si>
+  <si>
+    <t>蒋欣雨</t>
+  </si>
+  <si>
+    <t>商务英语</t>
+  </si>
+  <si>
+    <t>李祥瑞</t>
+  </si>
+  <si>
+    <t>河南理工大学(焦作)</t>
+  </si>
+  <si>
+    <t>测绘类</t>
+  </si>
+  <si>
+    <t>许宾宾</t>
+  </si>
+  <si>
+    <t>食品科学与工程类</t>
+  </si>
+  <si>
+    <t>纪承</t>
+  </si>
+  <si>
+    <t>杨茜娅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川外国语大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>园艺(中外合作办学)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻传播学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>段欣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽理工大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡垚</t>
+  </si>
+  <si>
+    <t>火灾勘查</t>
+  </si>
+  <si>
+    <t>张博峣</t>
+  </si>
+  <si>
+    <t>农林经济管理</t>
+  </si>
+  <si>
+    <t>张嘉怡</t>
+  </si>
+  <si>
+    <t>信息管理与信息系统</t>
+  </si>
+  <si>
+    <t>方远</t>
+  </si>
+  <si>
+    <t>安徽工程大学</t>
+  </si>
+  <si>
+    <t>电子信息科学与技术</t>
+  </si>
+  <si>
+    <t>梁铮信</t>
+  </si>
+  <si>
+    <t>化学工程与与工艺</t>
+  </si>
+  <si>
+    <t>郑强</t>
+  </si>
+  <si>
+    <t>四川大学</t>
+  </si>
+  <si>
+    <t>费越</t>
+  </si>
+  <si>
+    <t>中国农业大学</t>
+  </si>
+  <si>
+    <t>园艺</t>
+  </si>
+  <si>
+    <t>鲍微</t>
+  </si>
+  <si>
+    <t>石河子大学</t>
+  </si>
+  <si>
+    <t>邵一飞</t>
+  </si>
+  <si>
+    <t>南京理工大学</t>
+  </si>
+  <si>
+    <t>吕乐</t>
+  </si>
+  <si>
+    <t>舒杰</t>
+  </si>
+  <si>
+    <t>北京体育大学</t>
+  </si>
+  <si>
+    <t>运动康复</t>
+  </si>
+  <si>
+    <t>吴林轩</t>
+  </si>
+  <si>
+    <t>北京林业大学</t>
+  </si>
+  <si>
+    <t>吴俊凡</t>
+  </si>
+  <si>
+    <t>罗子健</t>
+  </si>
+  <si>
+    <t>宋起灵</t>
+  </si>
+  <si>
+    <t>西南大学</t>
+  </si>
+  <si>
+    <t>软件工程（中外合作办学）</t>
+  </si>
+  <si>
+    <t>童星奇</t>
+  </si>
+  <si>
+    <t>丁妍</t>
+  </si>
+  <si>
+    <t>周洋</t>
+  </si>
+  <si>
+    <t>付丽茹</t>
+  </si>
+  <si>
+    <t>植物保护</t>
+  </si>
+  <si>
+    <t>施承志</t>
+  </si>
+  <si>
+    <t>水文与水资源工程</t>
+  </si>
+  <si>
+    <t>南京中医药大学</t>
+  </si>
+  <si>
+    <t>吴梦</t>
+  </si>
+  <si>
+    <t>桂林电子科技学大学</t>
+  </si>
+  <si>
+    <t>王朝</t>
+  </si>
+  <si>
+    <t>药类</t>
+  </si>
+  <si>
+    <t>孙浩</t>
+  </si>
+  <si>
+    <t>邓明辉</t>
+  </si>
+  <si>
+    <t>帅黄乐</t>
+  </si>
+  <si>
+    <t>南京信息工程大学</t>
+  </si>
+  <si>
+    <t>测绘工程</t>
+  </si>
+  <si>
+    <t>叶智孜</t>
+  </si>
+  <si>
+    <t>重庆邮政大学</t>
+  </si>
+  <si>
+    <t>数学与信息科学类</t>
+  </si>
+  <si>
+    <t>张婧宜</t>
+  </si>
+  <si>
+    <t>张莘烨</t>
+  </si>
+  <si>
+    <t>精神医学</t>
+  </si>
+  <si>
+    <t>黄晨</t>
+  </si>
+  <si>
+    <t>放射医学</t>
+  </si>
+  <si>
+    <t>李丹</t>
+  </si>
+  <si>
+    <t>南京林业大学</t>
+  </si>
+  <si>
+    <t>物联网工程</t>
+  </si>
+  <si>
+    <t>叶浩男</t>
+  </si>
+  <si>
+    <t>安徽工业大</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>曹锦钰</t>
+  </si>
+  <si>
+    <t>高分子材料与工程</t>
+  </si>
+  <si>
+    <t>陈泉</t>
+  </si>
+  <si>
+    <t>中国矿业大学</t>
+  </si>
+  <si>
+    <t>张倩</t>
+  </si>
+  <si>
+    <t>金融植物</t>
+  </si>
+  <si>
+    <t>屈梦琪</t>
   </si>
 </sst>
 </file>
@@ -1994,6 +2361,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档_1" connectionId="1" xr16:uid="{FAA4FD3F-0F00-4DE6-868B-B4B9E7D73EF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2259,15 +2630,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="3"/>
@@ -7124,6 +7498,1164 @@
       </c>
       <c r="H217">
         <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>538</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>279</v>
+      </c>
+      <c r="D218" s="1">
+        <v>627</v>
+      </c>
+      <c r="E218" t="s">
+        <v>539</v>
+      </c>
+      <c r="F218" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>541</v>
+      </c>
+      <c r="B219">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>279</v>
+      </c>
+      <c r="D219" s="1">
+        <v>584</v>
+      </c>
+      <c r="E219" t="s">
+        <v>304</v>
+      </c>
+      <c r="F219" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>542</v>
+      </c>
+      <c r="B220">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>279</v>
+      </c>
+      <c r="D220" s="1">
+        <v>581</v>
+      </c>
+      <c r="E220" t="s">
+        <v>543</v>
+      </c>
+      <c r="F220" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>545</v>
+      </c>
+      <c r="B221">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>279</v>
+      </c>
+      <c r="D221" s="1">
+        <v>577</v>
+      </c>
+      <c r="E221" t="s">
+        <v>546</v>
+      </c>
+      <c r="F221" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>548</v>
+      </c>
+      <c r="B222">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>279</v>
+      </c>
+      <c r="D222" s="1">
+        <v>571</v>
+      </c>
+      <c r="E222" t="s">
+        <v>546</v>
+      </c>
+      <c r="F222" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>549</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>279</v>
+      </c>
+      <c r="D223" s="1">
+        <v>570</v>
+      </c>
+      <c r="E223" t="s">
+        <v>404</v>
+      </c>
+      <c r="F223" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>551</v>
+      </c>
+      <c r="B224">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>279</v>
+      </c>
+      <c r="D224" s="1">
+        <v>570</v>
+      </c>
+      <c r="E224" t="s">
+        <v>552</v>
+      </c>
+      <c r="F224" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>554</v>
+      </c>
+      <c r="B225">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>279</v>
+      </c>
+      <c r="D225" s="1">
+        <v>566</v>
+      </c>
+      <c r="E225" t="s">
+        <v>555</v>
+      </c>
+      <c r="F225" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>556</v>
+      </c>
+      <c r="B226">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>279</v>
+      </c>
+      <c r="D226" s="1">
+        <v>565</v>
+      </c>
+      <c r="E226" t="s">
+        <v>407</v>
+      </c>
+      <c r="F226" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>575</v>
+      </c>
+      <c r="B227">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>279</v>
+      </c>
+      <c r="D227" s="1">
+        <v>563</v>
+      </c>
+      <c r="E227" t="s">
+        <v>576</v>
+      </c>
+      <c r="F227" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>558</v>
+      </c>
+      <c r="B228">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>279</v>
+      </c>
+      <c r="D228" s="1">
+        <v>556</v>
+      </c>
+      <c r="E228" t="s">
+        <v>559</v>
+      </c>
+      <c r="F228" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>560</v>
+      </c>
+      <c r="B229">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>279</v>
+      </c>
+      <c r="D229" s="1">
+        <v>548</v>
+      </c>
+      <c r="E229" t="s">
+        <v>561</v>
+      </c>
+      <c r="F229" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>563</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>279</v>
+      </c>
+      <c r="D230" s="1">
+        <v>548</v>
+      </c>
+      <c r="E230" t="s">
+        <v>350</v>
+      </c>
+      <c r="F230" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>564</v>
+      </c>
+      <c r="B231">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>279</v>
+      </c>
+      <c r="D231" s="1">
+        <v>541</v>
+      </c>
+      <c r="E231" t="s">
+        <v>565</v>
+      </c>
+      <c r="F231" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>567</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>279</v>
+      </c>
+      <c r="D232" s="1">
+        <v>536</v>
+      </c>
+      <c r="E232" t="s">
+        <v>453</v>
+      </c>
+      <c r="F232" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>569</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>279</v>
+      </c>
+      <c r="D233" s="1">
+        <v>536</v>
+      </c>
+      <c r="E233" t="s">
+        <v>570</v>
+      </c>
+      <c r="F233" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>572</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>279</v>
+      </c>
+      <c r="D234" s="1">
+        <v>530</v>
+      </c>
+      <c r="E234" t="s">
+        <v>453</v>
+      </c>
+      <c r="F234" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>574</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>279</v>
+      </c>
+      <c r="D235" s="1">
+        <v>528</v>
+      </c>
+      <c r="E235" t="s">
+        <v>293</v>
+      </c>
+      <c r="F235" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>579</v>
+      </c>
+      <c r="B236">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>279</v>
+      </c>
+      <c r="D236" s="1">
+        <v>528</v>
+      </c>
+      <c r="E236" t="s">
+        <v>580</v>
+      </c>
+      <c r="F236" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>582</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>279</v>
+      </c>
+      <c r="D237" s="1">
+        <v>528</v>
+      </c>
+      <c r="E237" t="s">
+        <v>459</v>
+      </c>
+      <c r="F237" t="s">
+        <v>583</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>584</v>
+      </c>
+      <c r="B238">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>279</v>
+      </c>
+      <c r="D238" s="1">
+        <v>527</v>
+      </c>
+      <c r="E238" t="s">
+        <v>453</v>
+      </c>
+      <c r="F238" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>586</v>
+      </c>
+      <c r="B239">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>279</v>
+      </c>
+      <c r="D239" s="1">
+        <v>523</v>
+      </c>
+      <c r="E239" t="s">
+        <v>293</v>
+      </c>
+      <c r="F239" t="s">
+        <v>587</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>588</v>
+      </c>
+      <c r="B240">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>279</v>
+      </c>
+      <c r="D240" s="1">
+        <v>509</v>
+      </c>
+      <c r="E240" t="s">
+        <v>589</v>
+      </c>
+      <c r="F240" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>591</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>279</v>
+      </c>
+      <c r="D241" s="1">
+        <v>504</v>
+      </c>
+      <c r="E241" t="s">
+        <v>333</v>
+      </c>
+      <c r="F241" t="s">
+        <v>592</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>593</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>279</v>
+      </c>
+      <c r="D242" s="1">
+        <v>635</v>
+      </c>
+      <c r="E242" t="s">
+        <v>594</v>
+      </c>
+      <c r="F242" t="s">
+        <v>504</v>
+      </c>
+      <c r="H242">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>595</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>279</v>
+      </c>
+      <c r="D243" s="1">
+        <v>619</v>
+      </c>
+      <c r="E243" t="s">
+        <v>596</v>
+      </c>
+      <c r="F243" t="s">
+        <v>597</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H243">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>598</v>
+      </c>
+      <c r="B244">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>279</v>
+      </c>
+      <c r="D244" s="1">
+        <v>534</v>
+      </c>
+      <c r="E244" t="s">
+        <v>599</v>
+      </c>
+      <c r="F244" t="s">
+        <v>321</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H244">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>600</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>279</v>
+      </c>
+      <c r="D245" s="1">
+        <v>621</v>
+      </c>
+      <c r="E245" t="s">
+        <v>601</v>
+      </c>
+      <c r="F245" t="s">
+        <v>294</v>
+      </c>
+      <c r="H245">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>602</v>
+      </c>
+      <c r="B246">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>279</v>
+      </c>
+      <c r="D246" s="1">
+        <v>612</v>
+      </c>
+      <c r="E246" t="s">
+        <v>507</v>
+      </c>
+      <c r="F246" t="s">
+        <v>449</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H246">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>603</v>
+      </c>
+      <c r="B247">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>279</v>
+      </c>
+      <c r="D247" s="1">
+        <v>589</v>
+      </c>
+      <c r="E247" t="s">
+        <v>604</v>
+      </c>
+      <c r="F247" t="s">
+        <v>605</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H247">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>606</v>
+      </c>
+      <c r="B248">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>279</v>
+      </c>
+      <c r="D248" s="1">
+        <v>605</v>
+      </c>
+      <c r="E248" t="s">
+        <v>607</v>
+      </c>
+      <c r="F248" t="s">
+        <v>587</v>
+      </c>
+      <c r="H248">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>608</v>
+      </c>
+      <c r="B249">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>279</v>
+      </c>
+      <c r="D249" s="1">
+        <v>600</v>
+      </c>
+      <c r="E249" t="s">
+        <v>378</v>
+      </c>
+      <c r="F249" t="s">
+        <v>319</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H249">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>609</v>
+      </c>
+      <c r="B250">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>279</v>
+      </c>
+      <c r="D250" s="1">
+        <v>589</v>
+      </c>
+      <c r="E250" t="s">
+        <v>387</v>
+      </c>
+      <c r="F250" t="s">
+        <v>388</v>
+      </c>
+      <c r="H250">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>610</v>
+      </c>
+      <c r="B251">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>279</v>
+      </c>
+      <c r="D251" s="1">
+        <v>572</v>
+      </c>
+      <c r="E251" t="s">
+        <v>611</v>
+      </c>
+      <c r="F251" t="s">
+        <v>612</v>
+      </c>
+      <c r="H251">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>613</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>279</v>
+      </c>
+      <c r="D252" s="1">
+        <v>603</v>
+      </c>
+      <c r="E252" t="s">
+        <v>513</v>
+      </c>
+      <c r="F252" t="s">
+        <v>299</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H252">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>614</v>
+      </c>
+      <c r="B253">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>279</v>
+      </c>
+      <c r="D253" s="1">
+        <v>607</v>
+      </c>
+      <c r="E253" t="s">
+        <v>500</v>
+      </c>
+      <c r="F253" t="s">
+        <v>422</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H253">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>644</v>
+      </c>
+      <c r="B254">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>279</v>
+      </c>
+      <c r="D254">
+        <v>603</v>
+      </c>
+      <c r="E254" t="s">
+        <v>375</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H254">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>646</v>
+      </c>
+      <c r="B255">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>279</v>
+      </c>
+      <c r="D255">
+        <v>607</v>
+      </c>
+      <c r="E255" t="s">
+        <v>647</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H255">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>648</v>
+      </c>
+      <c r="B256">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>279</v>
+      </c>
+      <c r="D256">
+        <v>586</v>
+      </c>
+      <c r="E256" t="s">
+        <v>387</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H256">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>615</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257" t="s">
+        <v>279</v>
+      </c>
+      <c r="D257">
+        <v>601</v>
+      </c>
+      <c r="E257" t="s">
+        <v>611</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H257">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>616</v>
+      </c>
+      <c r="B258">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>279</v>
+      </c>
+      <c r="D258">
+        <v>536</v>
+      </c>
+      <c r="E258" t="s">
+        <v>565</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>618</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>279</v>
+      </c>
+      <c r="D259">
+        <v>543</v>
+      </c>
+      <c r="E259" t="s">
+        <v>353</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>650</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>279</v>
+      </c>
+      <c r="D260">
+        <v>578</v>
+      </c>
+      <c r="E260" t="s">
+        <v>620</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>621</v>
+      </c>
+      <c r="B261">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>279</v>
+      </c>
+      <c r="D261">
+        <v>560</v>
+      </c>
+      <c r="E261" t="s">
+        <v>622</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>623</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+      <c r="C262" t="s">
+        <v>279</v>
+      </c>
+      <c r="D262">
+        <v>532</v>
+      </c>
+      <c r="E262" t="s">
+        <v>318</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>625</v>
+      </c>
+      <c r="B263">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>279</v>
+      </c>
+      <c r="D263">
+        <v>557</v>
+      </c>
+      <c r="E263" t="s">
+        <v>407</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>626</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>279</v>
+      </c>
+      <c r="D264">
+        <v>545</v>
+      </c>
+      <c r="E264" t="s">
+        <v>453</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>627</v>
+      </c>
+      <c r="B265">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
+        <v>279</v>
+      </c>
+      <c r="D265">
+        <v>579</v>
+      </c>
+      <c r="E265" t="s">
+        <v>628</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>630</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>279</v>
+      </c>
+      <c r="D266">
+        <v>577</v>
+      </c>
+      <c r="E266" t="s">
+        <v>631</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>633</v>
+      </c>
+      <c r="B267">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>279</v>
+      </c>
+      <c r="D267">
+        <v>568</v>
+      </c>
+      <c r="E267" t="s">
+        <v>407</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>634</v>
+      </c>
+      <c r="B268">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>279</v>
+      </c>
+      <c r="D268">
+        <v>557</v>
+      </c>
+      <c r="E268" t="s">
+        <v>288</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>636</v>
+      </c>
+      <c r="B269">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>279</v>
+      </c>
+      <c r="D269">
+        <v>566</v>
+      </c>
+      <c r="E269" t="s">
+        <v>288</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>638</v>
+      </c>
+      <c r="B270">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>279</v>
+      </c>
+      <c r="D270">
+        <v>576</v>
+      </c>
+      <c r="E270" t="s">
+        <v>639</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>641</v>
+      </c>
+      <c r="B271">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>279</v>
+      </c>
+      <c r="D271">
+        <v>527</v>
+      </c>
+      <c r="E271" t="s">
+        <v>642</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/@data/2021.xlsx
+++ b/@data/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE253BD-96E8-4F47-BBFE-C58272E8DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CBC03-ECA6-4660-88CB-F145AB104365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="新建文本文档" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="新建文本文档" localSheetId="0">Sheet1!$A$272:$C$289</definedName>
     <definedName name="新建文本文档_1" localSheetId="0">Sheet1!$A$254:$F$271</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -30,7 +30,18 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{5BAA35F0-B586-4C14-B4F9-224FA1B56AF4}" name="新建文本文档1" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{BE20977C-59F1-4037-9787-FD72DA26F37A}" name="新建文本文档" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\projects\gitee\shawroger\gaokao\ocr\temp\新建文本文档.txt" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" xr16:uid="{5BAA35F0-B586-4C14-B4F9-224FA1B56AF4}" name="新建文本文档1" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr codePage="936" sourceFile="D:\projects\gitee\shawroger\gaokao\ocr\temp\新建文本文档.txt" comma="1">
       <textFields count="6">
         <textField/>
@@ -46,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="681">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2291,6 +2302,96 @@
   </si>
   <si>
     <t>屈梦琪</t>
+  </si>
+  <si>
+    <t>张殷哲</t>
+  </si>
+  <si>
+    <t>陶劲宇</t>
+  </si>
+  <si>
+    <t>上海立信会计金融学院</t>
+  </si>
+  <si>
+    <t>会计学</t>
+  </si>
+  <si>
+    <t>杨黎祥</t>
+  </si>
+  <si>
+    <t>陈卓</t>
+  </si>
+  <si>
+    <t>应用心理学</t>
+  </si>
+  <si>
+    <t>喻永庆</t>
+  </si>
+  <si>
+    <t>朱成蓉</t>
+  </si>
+  <si>
+    <t>材料科学与工程</t>
+  </si>
+  <si>
+    <t>陈心雨</t>
+  </si>
+  <si>
+    <t>潘振瞳</t>
+  </si>
+  <si>
+    <t>金融工程</t>
+  </si>
+  <si>
+    <t>汪雨</t>
+  </si>
+  <si>
+    <t>地理科学（师范）</t>
+  </si>
+  <si>
+    <t>朱郑鹏</t>
+  </si>
+  <si>
+    <t>傅子涵</t>
+  </si>
+  <si>
+    <t>中国语言文学类</t>
+  </si>
+  <si>
+    <t>严硕</t>
+  </si>
+  <si>
+    <t>天津科技大学</t>
+  </si>
+  <si>
+    <t>轻化工程</t>
+  </si>
+  <si>
+    <t>梅张龙</t>
+  </si>
+  <si>
+    <t>刘涵</t>
+  </si>
+  <si>
+    <t>周可</t>
+  </si>
+  <si>
+    <t>徐燕翔</t>
+  </si>
+  <si>
+    <t>口腔医学</t>
+  </si>
+  <si>
+    <t>张梦妍</t>
+  </si>
+  <si>
+    <t>针灸推拿学</t>
+  </si>
+  <si>
+    <t>徐晨</t>
+  </si>
+  <si>
+    <t>新闻传播学类</t>
   </si>
 </sst>
 </file>
@@ -2364,7 +2465,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档_1" connectionId="1" xr16:uid="{FAA4FD3F-0F00-4DE6-868B-B4B9E7D73EF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档" connectionId="1" xr16:uid="{856B6005-4345-4BF0-BD9F-03211A69D114}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档_1" connectionId="2" xr16:uid="{FAA4FD3F-0F00-4DE6-868B-B4B9E7D73EF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2630,18 +2735,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H271"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B273" sqref="B273"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G240" sqref="G240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="3"/>
@@ -7965,6 +8070,9 @@
       <c r="F240" t="s">
         <v>590</v>
       </c>
+      <c r="G240" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
@@ -7985,9 +8093,6 @@
       <c r="F241" t="s">
         <v>592</v>
       </c>
-      <c r="G241" s="3" t="s">
-        <v>361</v>
-      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -8656,6 +8761,366 @@
       </c>
       <c r="F271" s="1" t="s">
         <v>643</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>651</v>
+      </c>
+      <c r="B272">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>279</v>
+      </c>
+      <c r="D272">
+        <v>552</v>
+      </c>
+      <c r="E272" t="s">
+        <v>407</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>652</v>
+      </c>
+      <c r="B273">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>279</v>
+      </c>
+      <c r="D273">
+        <v>578</v>
+      </c>
+      <c r="E273" t="s">
+        <v>653</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>655</v>
+      </c>
+      <c r="B274">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>279</v>
+      </c>
+      <c r="D274">
+        <v>574</v>
+      </c>
+      <c r="E274" t="s">
+        <v>639</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>656</v>
+      </c>
+      <c r="B275">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>279</v>
+      </c>
+      <c r="D275">
+        <v>512</v>
+      </c>
+      <c r="E275" t="s">
+        <v>333</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>658</v>
+      </c>
+      <c r="B276">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276">
+        <v>533</v>
+      </c>
+      <c r="E276" t="s">
+        <v>453</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>659</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>279</v>
+      </c>
+      <c r="D277">
+        <v>576</v>
+      </c>
+      <c r="E277" t="s">
+        <v>304</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>661</v>
+      </c>
+      <c r="B278">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>279</v>
+      </c>
+      <c r="D278">
+        <v>528</v>
+      </c>
+      <c r="E278" t="s">
+        <v>336</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>662</v>
+      </c>
+      <c r="B279">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>279</v>
+      </c>
+      <c r="D279">
+        <v>505</v>
+      </c>
+      <c r="E279" t="s">
+        <v>589</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>664</v>
+      </c>
+      <c r="B280">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>279</v>
+      </c>
+      <c r="D280">
+        <v>502</v>
+      </c>
+      <c r="E280" t="s">
+        <v>333</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>666</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>279</v>
+      </c>
+      <c r="D281">
+        <v>522</v>
+      </c>
+      <c r="E281" t="s">
+        <v>453</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>667</v>
+      </c>
+      <c r="B282">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>279</v>
+      </c>
+      <c r="D282">
+        <v>559</v>
+      </c>
+      <c r="E282" t="s">
+        <v>407</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>669</v>
+      </c>
+      <c r="B283">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>279</v>
+      </c>
+      <c r="D283">
+        <v>564</v>
+      </c>
+      <c r="E283" t="s">
+        <v>670</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>672</v>
+      </c>
+      <c r="B284">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>279</v>
+      </c>
+      <c r="D284">
+        <v>577</v>
+      </c>
+      <c r="E284" t="s">
+        <v>323</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>673</v>
+      </c>
+      <c r="B285">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>279</v>
+      </c>
+      <c r="D285">
+        <v>550</v>
+      </c>
+      <c r="E285" t="s">
+        <v>350</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>674</v>
+      </c>
+      <c r="B286">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>279</v>
+      </c>
+      <c r="D286">
+        <v>540</v>
+      </c>
+      <c r="E286" t="s">
+        <v>296</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>675</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>279</v>
+      </c>
+      <c r="D287">
+        <v>558</v>
+      </c>
+      <c r="E287" t="s">
+        <v>296</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>677</v>
+      </c>
+      <c r="B288">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>279</v>
+      </c>
+      <c r="D288">
+        <v>511</v>
+      </c>
+      <c r="E288" t="s">
+        <v>320</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>679</v>
+      </c>
+      <c r="B289">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>279</v>
+      </c>
+      <c r="D289">
+        <v>499</v>
+      </c>
+      <c r="E289" t="s">
+        <v>333</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/@data/2021.xlsx
+++ b/@data/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3E045F-238A-4C07-BB27-D1D34A29D8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A557DBE3-3ACD-4C80-BF53-6828F687E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="895">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2903,6 +2903,168 @@
   </si>
   <si>
     <t>新能源材料与器件</t>
+  </si>
+  <si>
+    <t>吴思思</t>
+  </si>
+  <si>
+    <t>陈家豪</t>
+  </si>
+  <si>
+    <t>周易</t>
+  </si>
+  <si>
+    <t>机械设计制造及自动化</t>
+  </si>
+  <si>
+    <t>蔡应文</t>
+  </si>
+  <si>
+    <t>通信工程</t>
+  </si>
+  <si>
+    <t>李铄</t>
+  </si>
+  <si>
+    <t>侯宇骁</t>
+  </si>
+  <si>
+    <t>吴天智</t>
+  </si>
+  <si>
+    <t>林俊祝</t>
+  </si>
+  <si>
+    <t>邹喆</t>
+  </si>
+  <si>
+    <t>勘察技术与工程</t>
+  </si>
+  <si>
+    <t>胡祖耀</t>
+  </si>
+  <si>
+    <t>王瑞萌</t>
+  </si>
+  <si>
+    <t>中药学类</t>
+  </si>
+  <si>
+    <t>洪旭</t>
+  </si>
+  <si>
+    <t>黄嘉诚</t>
+  </si>
+  <si>
+    <t>建筑环境与能源利用工程</t>
+  </si>
+  <si>
+    <t>田羽捷</t>
+  </si>
+  <si>
+    <t>金融工程安全工程</t>
+  </si>
+  <si>
+    <t>徐晨宇</t>
+  </si>
+  <si>
+    <t>彭羊丽</t>
+  </si>
+  <si>
+    <t>陈雪</t>
+  </si>
+  <si>
+    <t>电子商务类</t>
+  </si>
+  <si>
+    <t>章仡豪</t>
+  </si>
+  <si>
+    <t>浙江海洋大学</t>
+  </si>
+  <si>
+    <t>船舶与海洋工程</t>
+  </si>
+  <si>
+    <t>张乐</t>
+  </si>
+  <si>
+    <t>高子材料与工程</t>
+  </si>
+  <si>
+    <t>柴婉</t>
+  </si>
+  <si>
+    <t>四川师范大学</t>
+  </si>
+  <si>
+    <t>金融工程专业</t>
+  </si>
+  <si>
+    <t>肖肸冉</t>
+  </si>
+  <si>
+    <t>北京师范大学香港浸会大学联合国际学院</t>
+  </si>
+  <si>
+    <t>吴俊豪</t>
+  </si>
+  <si>
+    <t>管善文</t>
+  </si>
+  <si>
+    <t>电子信息工程</t>
+  </si>
+  <si>
+    <t>陈黄慧</t>
+  </si>
+  <si>
+    <t>临床医学专业</t>
+  </si>
+  <si>
+    <t>刘远见</t>
+  </si>
+  <si>
+    <t>材料学专业</t>
+  </si>
+  <si>
+    <t>朱欣然</t>
+  </si>
+  <si>
+    <t>公共管理</t>
+  </si>
+  <si>
+    <t>朱帮乐</t>
+  </si>
+  <si>
+    <t>袁丹</t>
+  </si>
+  <si>
+    <t>张闻慧</t>
+  </si>
+  <si>
+    <t>杜方啸</t>
+  </si>
+  <si>
+    <t>陈瑶</t>
+  </si>
+  <si>
+    <t>许耀华</t>
+  </si>
+  <si>
+    <t>刘欣雨</t>
+  </si>
+  <si>
+    <t>王凯</t>
+  </si>
+  <si>
+    <t>康复治疗</t>
+  </si>
+  <si>
+    <t>王雨彤</t>
+  </si>
+  <si>
+    <t>浙江农林大学</t>
   </si>
 </sst>
 </file>
@@ -3254,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J379"/>
+  <dimension ref="A1:J415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J371" sqref="J371"/>
+    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3266,7 +3428,7 @@
     <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.88671875" style="1"/>
@@ -11744,6 +11906,726 @@
       </c>
       <c r="H379" s="1" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B380" s="1">
+        <v>10</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D380" s="1">
+        <v>528</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B381" s="1">
+        <v>10</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D381" s="1">
+        <v>523</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B382" s="1">
+        <v>10</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D382" s="1">
+        <v>520</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B383" s="1">
+        <v>10</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D383" s="1">
+        <v>519</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B384" s="1">
+        <v>10</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D384" s="1">
+        <v>518</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B385" s="1">
+        <v>10</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D385" s="1">
+        <v>516</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B386" s="1">
+        <v>10</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D386" s="1">
+        <v>515</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B387" s="1">
+        <v>10</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D387" s="1">
+        <v>514</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B388" s="1">
+        <v>10</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D388" s="1">
+        <v>514</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B389" s="1">
+        <v>10</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D389" s="1">
+        <v>509</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B390" s="1">
+        <v>10</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D390" s="1">
+        <v>507</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B391" s="1">
+        <v>10</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D391" s="1">
+        <v>506</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B392" s="1">
+        <v>10</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D392" s="1">
+        <v>500</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B393" s="1">
+        <v>10</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D393" s="1">
+        <v>499</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B394" s="1">
+        <v>11</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D394" s="1">
+        <v>568</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B395" s="1">
+        <v>11</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D395" s="1">
+        <v>506</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B396" s="1">
+        <v>11</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D396" s="1">
+        <v>545</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B397" s="1">
+        <v>11</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D397" s="1">
+        <v>540</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B398" s="1">
+        <v>11</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D398" s="1">
+        <v>554</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B399" s="1">
+        <v>11</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D399" s="1">
+        <v>554</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B400" s="1">
+        <v>11</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D400" s="1">
+        <v>529</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B401" s="1">
+        <v>11</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D401" s="1">
+        <v>544</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B402" s="1">
+        <v>11</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D402" s="1">
+        <v>513</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B403" s="1">
+        <v>11</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D403" s="1">
+        <v>522</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B404" s="1">
+        <v>11</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D404" s="1">
+        <v>528</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B405" s="1">
+        <v>11</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D405" s="1">
+        <v>515</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B406" s="1">
+        <v>11</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D406" s="1">
+        <v>531</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B407" s="1">
+        <v>11</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D407" s="1">
+        <v>522</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B408" s="1">
+        <v>11</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D408" s="1">
+        <v>508</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B409" s="1">
+        <v>11</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D409" s="1">
+        <v>512</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B410" s="1">
+        <v>11</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D410" s="1">
+        <v>533</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B411" s="1">
+        <v>11</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D411" s="1">
+        <v>534</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B412" s="1">
+        <v>11</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D412" s="1">
+        <v>539</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B413" s="1">
+        <v>11</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D413" s="1">
+        <v>548</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B414" s="1">
+        <v>11</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D414" s="1">
+        <v>542</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B415" s="1">
+        <v>11</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D415" s="1">
+        <v>548</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/@data/2021.xlsx
+++ b/@data/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A557DBE3-3ACD-4C80-BF53-6828F687E711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAABEDA-2607-4FFF-AA37-A4B1536631C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1015">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,9 +1207,6 @@
     <t>上海中医药大学</t>
   </si>
   <si>
-    <t>药学(中外合作)</t>
-  </si>
-  <si>
     <t>方浩伟</t>
   </si>
   <si>
@@ -1220,9 +1217,6 @@
   </si>
   <si>
     <t>河南大学</t>
-  </si>
-  <si>
-    <t>土木工程(中外合作)</t>
   </si>
   <si>
     <t>江鹏</t>
@@ -1966,9 +1960,6 @@
     <t>冯听冉</t>
   </si>
   <si>
-    <t>工商管理(中外合作办学)</t>
-  </si>
-  <si>
     <t>合肥工业大学（宣城）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1979,9 +1970,6 @@
     <t>上海外国语大学</t>
   </si>
   <si>
-    <t>外交学(双学位)</t>
-  </si>
-  <si>
     <t>徐成杰</t>
   </si>
   <si>
@@ -2030,9 +2018,6 @@
     <t>陈佳慧</t>
   </si>
   <si>
-    <t>数学与应用数学(师范)</t>
-  </si>
-  <si>
     <t>陈志宇</t>
   </si>
   <si>
@@ -2067,9 +2052,6 @@
   </si>
   <si>
     <t>李祥瑞</t>
-  </si>
-  <si>
-    <t>河南理工大学(焦作)</t>
   </si>
   <si>
     <t>测绘类</t>
@@ -2092,10 +2074,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>园艺(中外合作办学)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>新闻传播学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2424,9 +2402,6 @@
     <t>包紫艳</t>
   </si>
   <si>
-    <t>生物科学(范)</t>
-  </si>
-  <si>
     <t>胡谨烨</t>
   </si>
   <si>
@@ -2520,9 +2495,6 @@
     <t>合肥师范学院</t>
   </si>
   <si>
-    <t>化学(师范</t>
-  </si>
-  <si>
     <t>徐子骏</t>
   </si>
   <si>
@@ -2717,10 +2689,6 @@
     <t>网络工程</t>
   </si>
   <si>
-    <t>海洋技术(厦门大学马来西亚分校)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>能源动力类（能源类）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3065,6 +3033,418 @@
   </si>
   <si>
     <t>浙江农林大学</t>
+  </si>
+  <si>
+    <t>俞美伊</t>
+  </si>
+  <si>
+    <t>宋琪</t>
+  </si>
+  <si>
+    <t>西安财经大学</t>
+  </si>
+  <si>
+    <t>经济统计</t>
+  </si>
+  <si>
+    <t>余晶</t>
+  </si>
+  <si>
+    <t>王珂</t>
+  </si>
+  <si>
+    <t>魏乐</t>
+  </si>
+  <si>
+    <t>智慧林业</t>
+  </si>
+  <si>
+    <t>黄紫</t>
+  </si>
+  <si>
+    <t>测量技术与仪器</t>
+  </si>
+  <si>
+    <t>胡竞宇</t>
+  </si>
+  <si>
+    <t>医学检验</t>
+  </si>
+  <si>
+    <t>倪梦影</t>
+  </si>
+  <si>
+    <t>人文地理与城乡规划</t>
+  </si>
+  <si>
+    <t>护理</t>
+  </si>
+  <si>
+    <t>彭安琪</t>
+  </si>
+  <si>
+    <t>徐飞洋</t>
+  </si>
+  <si>
+    <t>黄志贤</t>
+  </si>
+  <si>
+    <t>华北理工大学</t>
+  </si>
+  <si>
+    <t>无机非金属材料工程</t>
+  </si>
+  <si>
+    <t>胡晨阳</t>
+  </si>
+  <si>
+    <t>徐浩东</t>
+  </si>
+  <si>
+    <t>湘潭大学</t>
+  </si>
+  <si>
+    <t>乾锦</t>
+  </si>
+  <si>
+    <t>卫生检验与检疫</t>
+  </si>
+  <si>
+    <t>李梦</t>
+  </si>
+  <si>
+    <t>钱心怡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡文翰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境科学与工程类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨少彤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐一晖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海海洋大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源与动力类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明希</t>
+  </si>
+  <si>
+    <t>宁波诺丁汉大学</t>
+  </si>
+  <si>
+    <t>刘超</t>
+  </si>
+  <si>
+    <t>土木工程（中外合作）</t>
+  </si>
+  <si>
+    <t>查宇涵</t>
+  </si>
+  <si>
+    <t>章建谊</t>
+  </si>
+  <si>
+    <t>谭鑫</t>
+  </si>
+  <si>
+    <t>潘紫杨</t>
+  </si>
+  <si>
+    <t>外国语言文学类专业</t>
+  </si>
+  <si>
+    <t>刘政</t>
+  </si>
+  <si>
+    <t>城市地下空间工程</t>
+  </si>
+  <si>
+    <t>方可心</t>
+  </si>
+  <si>
+    <t>明琳</t>
+  </si>
+  <si>
+    <t>杨钊宁</t>
+  </si>
+  <si>
+    <t>陈薇伊</t>
+  </si>
+  <si>
+    <t>飞行器适航技术</t>
+  </si>
+  <si>
+    <t>甘许</t>
+  </si>
+  <si>
+    <t>温州肯恩大学</t>
+  </si>
+  <si>
+    <t>化学（中外合作）</t>
+  </si>
+  <si>
+    <t>杜开文</t>
+  </si>
+  <si>
+    <t>南昌工程学院</t>
+  </si>
+  <si>
+    <t>胡诗怡</t>
+  </si>
+  <si>
+    <t>胡思雨</t>
+  </si>
+  <si>
+    <t>服装设计工程</t>
+  </si>
+  <si>
+    <t>谭婧恒</t>
+  </si>
+  <si>
+    <t>任伟</t>
+  </si>
+  <si>
+    <t>数据科学与大数据</t>
+  </si>
+  <si>
+    <t>园艺（中外合作）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>药学（中外合作）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学（师范</t>
+  </si>
+  <si>
+    <t>化学（师范）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商管理（中外合作办学）</t>
+  </si>
+  <si>
+    <t>外交学（双学位）</t>
+  </si>
+  <si>
+    <t>数学与应用数学（师范）</t>
+  </si>
+  <si>
+    <t>生物科学（范）</t>
+  </si>
+  <si>
+    <t>海洋技术（厦门大学马来西亚分校）</t>
+  </si>
+  <si>
+    <t>河南理工大学（焦作）</t>
+  </si>
+  <si>
+    <t>胡恬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥师范学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学教育（师范）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王润琳</t>
+  </si>
+  <si>
+    <t>万忠桁</t>
+  </si>
+  <si>
+    <t>张思颖</t>
+  </si>
+  <si>
+    <t>余宣道</t>
+  </si>
+  <si>
+    <t>肖杨</t>
+  </si>
+  <si>
+    <t>生物工程</t>
+  </si>
+  <si>
+    <t>胡开颖</t>
+  </si>
+  <si>
+    <t>文科</t>
+  </si>
+  <si>
+    <t>周宇</t>
+  </si>
+  <si>
+    <t>金融学</t>
+  </si>
+  <si>
+    <t>王定坤</t>
+  </si>
+  <si>
+    <t>刘忠乐</t>
+  </si>
+  <si>
+    <t>方贤婷</t>
+  </si>
+  <si>
+    <t>王子涵</t>
+  </si>
+  <si>
+    <t>臧艺哲</t>
+  </si>
+  <si>
+    <t>倪茂</t>
+  </si>
+  <si>
+    <t>广东工业大学</t>
+  </si>
+  <si>
+    <t>李欣茹</t>
+  </si>
+  <si>
+    <t>程小骄</t>
+  </si>
+  <si>
+    <t>江苏海洋大学</t>
+  </si>
+  <si>
+    <t>柴钰</t>
+  </si>
+  <si>
+    <t>日语</t>
+  </si>
+  <si>
+    <t>中国人民大学（苏州校区）</t>
+  </si>
+  <si>
+    <t>童兰淇</t>
+  </si>
+  <si>
+    <t>汉语国际教育</t>
+  </si>
+  <si>
+    <t>张佳</t>
+  </si>
+  <si>
+    <t>刘逸</t>
+  </si>
+  <si>
+    <t>汉语言文学</t>
+  </si>
+  <si>
+    <t>王乐乐</t>
+  </si>
+  <si>
+    <t>社会学类</t>
+  </si>
+  <si>
+    <t>沈雨婷</t>
+  </si>
+  <si>
+    <t>高端妃</t>
+  </si>
+  <si>
+    <t>北京工商大学</t>
+  </si>
+  <si>
+    <t>方丹燕</t>
+  </si>
+  <si>
+    <t>公共管理类</t>
+  </si>
+  <si>
+    <t>上海商学院</t>
+  </si>
+  <si>
+    <t>王玥晗</t>
+  </si>
+  <si>
+    <t>行政管理</t>
+  </si>
+  <si>
+    <t>王欣桐</t>
+  </si>
+  <si>
+    <t>李若桐</t>
+  </si>
+  <si>
+    <t>旅游管理类</t>
+  </si>
+  <si>
+    <t>张可</t>
+  </si>
+  <si>
+    <t>周思凡</t>
+  </si>
+  <si>
+    <t>中南林业科技大学</t>
+  </si>
+  <si>
+    <t>金融学类</t>
+  </si>
+  <si>
+    <t>经济与贸易类</t>
+  </si>
+  <si>
+    <t>郑嘉瑜</t>
+  </si>
+  <si>
+    <t>杨怡菲</t>
+  </si>
+  <si>
+    <t>安徽大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘思佚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任思颐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙亚欣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东师范大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨昕朋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江文倩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3416,16 +3796,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J415"/>
+  <dimension ref="A1:J487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C424" sqref="C424"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E463" sqref="E463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
@@ -5896,12 +6276,12 @@
         <v>285</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>286</v>
+        <v>946</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B113" s="1">
         <v>3</v>
@@ -5913,15 +6293,15 @@
         <v>568</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B114" s="1">
         <v>3</v>
@@ -5933,15 +6313,15 @@
         <v>553</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>291</v>
+        <v>921</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B115" s="1">
         <v>3</v>
@@ -5953,15 +6333,15 @@
         <v>525</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B116" s="1">
         <v>3</v>
@@ -5973,15 +6353,15 @@
         <v>545</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -5993,15 +6373,15 @@
         <v>549</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B118" s="1">
         <v>3</v>
@@ -6013,15 +6393,15 @@
         <v>557</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B119" s="1">
         <v>3</v>
@@ -6033,15 +6413,15 @@
         <v>584</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B120" s="1">
         <v>3</v>
@@ -6053,15 +6433,15 @@
         <v>541</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B121" s="1">
         <v>3</v>
@@ -6073,15 +6453,15 @@
         <v>545</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B122" s="1">
         <v>3</v>
@@ -6093,15 +6473,15 @@
         <v>546</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B123" s="1">
         <v>3</v>
@@ -6113,15 +6493,15 @@
         <v>494</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -6133,15 +6513,15 @@
         <v>571</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -6153,15 +6533,15 @@
         <v>563</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B126" s="1">
         <v>3</v>
@@ -6173,15 +6553,15 @@
         <v>498</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B127" s="1">
         <v>3</v>
@@ -6193,15 +6573,15 @@
         <v>577</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -6213,21 +6593,21 @@
         <v>533</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B129" s="1">
         <v>3</v>
@@ -6239,21 +6619,21 @@
         <v>512</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -6265,21 +6645,21 @@
         <v>529</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -6291,15 +6671,15 @@
         <v>558</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B132" s="1">
         <v>3</v>
@@ -6311,21 +6691,21 @@
         <v>519</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B133" s="1">
         <v>3</v>
@@ -6337,15 +6717,15 @@
         <v>550</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B134" s="1">
         <v>3</v>
@@ -6357,21 +6737,21 @@
         <v>540</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B135" s="1">
         <v>3</v>
@@ -6383,15 +6763,15 @@
         <v>564</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B136" s="1">
         <v>3</v>
@@ -6403,15 +6783,15 @@
         <v>541</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B137" s="1">
         <v>3</v>
@@ -6423,18 +6803,18 @@
         <v>547</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
@@ -6446,15 +6826,15 @@
         <v>557</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B139" s="1">
         <v>3</v>
@@ -6466,18 +6846,18 @@
         <v>515</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -6489,18 +6869,18 @@
         <v>443</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B141" s="1">
         <v>4</v>
@@ -6512,13 +6892,13 @@
         <v>628</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H141" s="1">
         <v>985</v>
@@ -6526,7 +6906,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B142" s="1">
         <v>4</v>
@@ -6538,10 +6918,10 @@
         <v>625</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H142" s="1">
         <v>985</v>
@@ -6549,7 +6929,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B143" s="1">
         <v>4</v>
@@ -6561,13 +6941,13 @@
         <v>603</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H143" s="1">
         <v>985</v>
@@ -6575,7 +6955,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B144" s="1">
         <v>4</v>
@@ -6587,10 +6967,10 @@
         <v>616</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H144" s="1">
         <v>211</v>
@@ -6598,7 +6978,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B145" s="1">
         <v>4</v>
@@ -6610,13 +6990,13 @@
         <v>610</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H145" s="1">
         <v>211</v>
@@ -6624,7 +7004,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B146" s="1">
         <v>4</v>
@@ -6636,13 +7016,13 @@
         <v>608</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H146" s="1">
         <v>211</v>
@@ -6650,7 +7030,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B147" s="1">
         <v>4</v>
@@ -6662,13 +7042,13 @@
         <v>605</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H147" s="1">
         <v>211</v>
@@ -6676,7 +7056,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B148" s="1">
         <v>4</v>
@@ -6688,10 +7068,10 @@
         <v>605</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H148" s="1">
         <v>211</v>
@@ -6699,7 +7079,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B149" s="1">
         <v>4</v>
@@ -6711,13 +7091,13 @@
         <v>601</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H149" s="1">
         <v>211</v>
@@ -6725,7 +7105,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B150" s="1">
         <v>4</v>
@@ -6737,10 +7117,10 @@
         <v>585</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H150" s="1">
         <v>211</v>
@@ -6748,7 +7128,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B151" s="1">
         <v>4</v>
@@ -6760,13 +7140,13 @@
         <v>578</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>169</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H151" s="1">
         <v>211</v>
@@ -6774,7 +7154,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B152" s="1">
         <v>4</v>
@@ -6786,10 +7166,10 @@
         <v>573</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H152" s="1">
         <v>211</v>
@@ -6797,7 +7177,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -6809,15 +7189,15 @@
         <v>599</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B154" s="1">
         <v>4</v>
@@ -6829,18 +7209,18 @@
         <v>597</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B155" s="1">
         <v>4</v>
@@ -6852,18 +7232,18 @@
         <v>596</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B156" s="1">
         <v>4</v>
@@ -6875,15 +7255,15 @@
         <v>592</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -6895,18 +7275,18 @@
         <v>578</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>281</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B158" s="1">
         <v>4</v>
@@ -6918,18 +7298,18 @@
         <v>573</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -6941,18 +7321,18 @@
         <v>570</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B160" s="1">
         <v>4</v>
@@ -6964,18 +7344,18 @@
         <v>569</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -6987,18 +7367,18 @@
         <v>568</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B162" s="1">
         <v>4</v>
@@ -7010,18 +7390,18 @@
         <v>566</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B163" s="1">
         <v>4</v>
@@ -7033,18 +7413,18 @@
         <v>565</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B164" s="1">
         <v>4</v>
@@ -7056,15 +7436,15 @@
         <v>565</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B165" s="1">
         <v>4</v>
@@ -7076,15 +7456,15 @@
         <v>563</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B166" s="1">
         <v>4</v>
@@ -7096,15 +7476,15 @@
         <v>563</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B167" s="1">
         <v>4</v>
@@ -7116,15 +7496,15 @@
         <v>562</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -7136,15 +7516,15 @@
         <v>564</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -7156,15 +7536,15 @@
         <v>561</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B170" s="1">
         <v>4</v>
@@ -7176,15 +7556,15 @@
         <v>558</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -7196,15 +7576,15 @@
         <v>554</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B172" s="1">
         <v>4</v>
@@ -7216,15 +7596,15 @@
         <v>554</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -7236,15 +7616,15 @@
         <v>553</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -7256,15 +7636,15 @@
         <v>552</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B175" s="1">
         <v>4</v>
@@ -7276,15 +7656,15 @@
         <v>552</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -7296,15 +7676,15 @@
         <v>552</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -7316,15 +7696,15 @@
         <v>544</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B178" s="1">
         <v>4</v>
@@ -7336,15 +7716,15 @@
         <v>544</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -7356,15 +7736,15 @@
         <v>542</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B180" s="1">
         <v>4</v>
@@ -7376,15 +7756,15 @@
         <v>541</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B181" s="1">
         <v>4</v>
@@ -7396,15 +7776,15 @@
         <v>541</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B182" s="1">
         <v>4</v>
@@ -7416,15 +7796,15 @@
         <v>538</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B183" s="1">
         <v>4</v>
@@ -7436,21 +7816,21 @@
         <v>534</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B184" s="1">
         <v>4</v>
@@ -7462,15 +7842,15 @@
         <v>532</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B185" s="1">
         <v>4</v>
@@ -7482,21 +7862,21 @@
         <v>531</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B186" s="1">
         <v>4</v>
@@ -7508,15 +7888,15 @@
         <v>530</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B187" s="1">
         <v>4</v>
@@ -7528,21 +7908,21 @@
         <v>529</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B188" s="1">
         <v>4</v>
@@ -7554,15 +7934,15 @@
         <v>526</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B189" s="1">
         <v>4</v>
@@ -7574,21 +7954,21 @@
         <v>518</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B190" s="1">
         <v>4</v>
@@ -7600,21 +7980,21 @@
         <v>507</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B191" s="1">
         <v>4</v>
@@ -7626,15 +8006,15 @@
         <v>500</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B192" s="1">
         <v>4</v>
@@ -7646,21 +8026,21 @@
         <v>499</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B193" s="1">
         <v>5</v>
@@ -7672,13 +8052,13 @@
         <v>652</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H193" s="1">
         <v>985</v>
@@ -7686,7 +8066,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B194" s="1">
         <v>5</v>
@@ -7698,10 +8078,10 @@
         <v>633</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H194" s="1">
         <v>985</v>
@@ -7709,7 +8089,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B195" s="1">
         <v>5</v>
@@ -7721,13 +8101,13 @@
         <v>630</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H195" s="1">
         <v>985</v>
@@ -7735,7 +8115,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B196" s="1">
         <v>5</v>
@@ -7747,10 +8127,10 @@
         <v>601</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H196" s="1">
         <v>985</v>
@@ -7758,7 +8138,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B197" s="1">
         <v>5</v>
@@ -7770,10 +8150,10 @@
         <v>619</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H197" s="1">
         <v>211</v>
@@ -7781,7 +8161,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B198" s="1">
         <v>5</v>
@@ -7796,10 +8176,10 @@
         <v>88</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H198" s="1">
         <v>211</v>
@@ -7807,7 +8187,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B199" s="1">
         <v>5</v>
@@ -7819,13 +8199,13 @@
         <v>617</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H199" s="1">
         <v>211</v>
@@ -7833,7 +8213,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B200" s="1">
         <v>5</v>
@@ -7845,13 +8225,13 @@
         <v>614</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H200" s="1">
         <v>211</v>
@@ -7859,7 +8239,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B201" s="1">
         <v>5</v>
@@ -7871,13 +8251,13 @@
         <v>610</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H201" s="1">
         <v>211</v>
@@ -7885,7 +8265,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B202" s="1">
         <v>5</v>
@@ -7897,13 +8277,13 @@
         <v>610</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H202" s="1">
         <v>211</v>
@@ -7911,7 +8291,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B203" s="1">
         <v>5</v>
@@ -7923,10 +8303,10 @@
         <v>609</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H203" s="1">
         <v>211</v>
@@ -7934,7 +8314,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B204" s="1">
         <v>5</v>
@@ -7946,13 +8326,13 @@
         <v>605</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H204" s="1">
         <v>211</v>
@@ -7960,7 +8340,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B205" s="1">
         <v>5</v>
@@ -7972,13 +8352,13 @@
         <v>595</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H205" s="1">
         <v>211</v>
@@ -7986,7 +8366,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B206" s="1">
         <v>5</v>
@@ -7998,10 +8378,10 @@
         <v>595</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H206" s="1">
         <v>211</v>
@@ -8009,7 +8389,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B207" s="1">
         <v>5</v>
@@ -8021,13 +8401,13 @@
         <v>588</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>281</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H207" s="1">
         <v>211</v>
@@ -8035,7 +8415,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B208" s="1">
         <v>5</v>
@@ -8047,10 +8427,10 @@
         <v>587</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H208" s="1">
         <v>211</v>
@@ -8058,7 +8438,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B209" s="1">
         <v>5</v>
@@ -8070,13 +8450,13 @@
         <v>587</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H209" s="1">
         <v>211</v>
@@ -8084,7 +8464,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B210" s="1">
         <v>5</v>
@@ -8096,10 +8476,10 @@
         <v>585</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H210" s="1">
         <v>211</v>
@@ -8107,7 +8487,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B211" s="1">
         <v>5</v>
@@ -8119,13 +8499,13 @@
         <v>583</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>281</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H211" s="1">
         <v>211</v>
@@ -8133,7 +8513,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B212" s="1">
         <v>5</v>
@@ -8145,13 +8525,13 @@
         <v>583</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H212" s="1">
         <v>211</v>
@@ -8159,7 +8539,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B213" s="1">
         <v>5</v>
@@ -8171,13 +8551,13 @@
         <v>582</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H213" s="1">
         <v>211</v>
@@ -8185,7 +8565,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B214" s="1">
         <v>5</v>
@@ -8197,13 +8577,13 @@
         <v>578</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H214" s="1">
         <v>211</v>
@@ -8211,7 +8591,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B215" s="1">
         <v>5</v>
@@ -8223,13 +8603,13 @@
         <v>578</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H215" s="1">
         <v>211</v>
@@ -8237,7 +8617,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B216" s="1">
         <v>5</v>
@@ -8249,13 +8629,13 @@
         <v>568</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H216" s="1">
         <v>211</v>
@@ -8263,7 +8643,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B217" s="1">
         <v>5</v>
@@ -8275,13 +8655,13 @@
         <v>566</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>536</v>
+        <v>949</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H217" s="1">
         <v>211</v>
@@ -8289,7 +8669,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B218" s="1">
         <v>5</v>
@@ -8301,15 +8681,15 @@
         <v>627</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>540</v>
+        <v>950</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B219" s="1">
         <v>5</v>
@@ -8321,15 +8701,15 @@
         <v>584</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B220" s="1">
         <v>5</v>
@@ -8341,15 +8721,15 @@
         <v>581</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B221" s="1">
         <v>5</v>
@@ -8361,15 +8741,15 @@
         <v>577</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B222" s="1">
         <v>5</v>
@@ -8381,15 +8761,15 @@
         <v>571</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B223" s="1">
         <v>5</v>
@@ -8401,15 +8781,15 @@
         <v>570</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B224" s="1">
         <v>5</v>
@@ -8421,15 +8801,15 @@
         <v>570</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B225" s="1">
         <v>5</v>
@@ -8441,15 +8821,15 @@
         <v>566</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B226" s="1">
         <v>5</v>
@@ -8461,15 +8841,15 @@
         <v>565</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>557</v>
+        <v>951</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B227" s="1">
         <v>5</v>
@@ -8481,15 +8861,15 @@
         <v>563</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B228" s="1">
         <v>5</v>
@@ -8501,15 +8881,15 @@
         <v>556</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>577</v>
+        <v>945</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B229" s="1">
         <v>5</v>
@@ -8521,15 +8901,15 @@
         <v>548</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B230" s="1">
         <v>5</v>
@@ -8541,15 +8921,15 @@
         <v>548</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B231" s="1">
         <v>5</v>
@@ -8561,15 +8941,15 @@
         <v>541</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B232" s="1">
         <v>5</v>
@@ -8581,15 +8961,15 @@
         <v>536</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B233" s="1">
         <v>5</v>
@@ -8601,15 +8981,15 @@
         <v>536</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>570</v>
+        <v>954</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B234" s="1">
         <v>5</v>
@@ -8621,15 +9001,15 @@
         <v>530</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B235" s="1">
         <v>5</v>
@@ -8641,15 +9021,15 @@
         <v>528</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B236" s="1">
         <v>5</v>
@@ -8661,15 +9041,15 @@
         <v>528</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B237" s="1">
         <v>5</v>
@@ -8681,18 +9061,18 @@
         <v>528</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B238" s="1">
         <v>5</v>
@@ -8704,15 +9084,15 @@
         <v>527</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B239" s="1">
         <v>5</v>
@@ -8724,18 +9104,18 @@
         <v>523</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B240" s="1">
         <v>5</v>
@@ -8747,18 +9127,18 @@
         <v>509</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B241" s="1">
         <v>5</v>
@@ -8770,15 +9150,15 @@
         <v>504</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B242" s="1">
         <v>6</v>
@@ -8790,10 +9170,10 @@
         <v>635</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H242" s="1">
         <v>985</v>
@@ -8801,7 +9181,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B243" s="1">
         <v>6</v>
@@ -8813,13 +9193,13 @@
         <v>619</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H243" s="1">
         <v>985</v>
@@ -8827,7 +9207,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B244" s="1">
         <v>6</v>
@@ -8839,13 +9219,13 @@
         <v>534</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H244" s="1">
         <v>211</v>
@@ -8853,7 +9233,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B245" s="1">
         <v>6</v>
@@ -8865,10 +9245,10 @@
         <v>621</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H245" s="1">
         <v>211</v>
@@ -8876,7 +9256,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B246" s="1">
         <v>6</v>
@@ -8888,13 +9268,13 @@
         <v>612</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H246" s="1">
         <v>211</v>
@@ -8902,7 +9282,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B247" s="1">
         <v>6</v>
@@ -8914,13 +9294,13 @@
         <v>589</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H247" s="1">
         <v>211</v>
@@ -8928,7 +9308,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B248" s="1">
         <v>6</v>
@@ -8940,10 +9320,10 @@
         <v>605</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H248" s="1">
         <v>211</v>
@@ -8951,7 +9331,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B249" s="1">
         <v>6</v>
@@ -8963,13 +9343,13 @@
         <v>600</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H249" s="1">
         <v>211</v>
@@ -8977,7 +9357,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B250" s="1">
         <v>6</v>
@@ -8989,10 +9369,10 @@
         <v>589</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H250" s="1">
         <v>211</v>
@@ -9000,7 +9380,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B251" s="1">
         <v>6</v>
@@ -9012,10 +9392,10 @@
         <v>572</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H251" s="1">
         <v>211</v>
@@ -9023,7 +9403,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B252" s="1">
         <v>6</v>
@@ -9035,13 +9415,13 @@
         <v>603</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H252" s="1">
         <v>211</v>
@@ -9049,7 +9429,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B253" s="1">
         <v>6</v>
@@ -9061,13 +9441,13 @@
         <v>607</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H253" s="1">
         <v>211</v>
@@ -9075,7 +9455,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B254" s="1">
         <v>6</v>
@@ -9087,10 +9467,10 @@
         <v>603</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="H254" s="1">
         <v>211</v>
@@ -9098,7 +9478,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B255" s="1">
         <v>6</v>
@@ -9110,10 +9490,10 @@
         <v>607</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H255" s="1">
         <v>211</v>
@@ -9121,7 +9501,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B256" s="1">
         <v>6</v>
@@ -9133,10 +9513,10 @@
         <v>586</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="H256" s="1">
         <v>211</v>
@@ -9144,7 +9524,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B257" s="1">
         <v>6</v>
@@ -9156,10 +9536,10 @@
         <v>601</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H257" s="1">
         <v>211</v>
@@ -9167,7 +9547,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B258" s="1">
         <v>6</v>
@@ -9179,15 +9559,15 @@
         <v>536</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B259" s="1">
         <v>6</v>
@@ -9199,15 +9579,15 @@
         <v>543</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B260" s="1">
         <v>6</v>
@@ -9219,15 +9599,15 @@
         <v>578</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B261" s="1">
         <v>6</v>
@@ -9239,15 +9619,15 @@
         <v>560</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B262" s="1">
         <v>6</v>
@@ -9259,15 +9639,15 @@
         <v>532</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B263" s="1">
         <v>6</v>
@@ -9279,7 +9659,7 @@
         <v>557</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>169</v>
@@ -9287,7 +9667,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B264" s="1">
         <v>6</v>
@@ -9299,15 +9679,15 @@
         <v>545</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B265" s="1">
         <v>6</v>
@@ -9319,15 +9699,15 @@
         <v>579</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B266" s="1">
         <v>6</v>
@@ -9339,15 +9719,15 @@
         <v>577</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B267" s="1">
         <v>6</v>
@@ -9359,15 +9739,15 @@
         <v>568</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B268" s="1">
         <v>6</v>
@@ -9379,15 +9759,15 @@
         <v>557</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B269" s="1">
         <v>6</v>
@@ -9399,15 +9779,15 @@
         <v>566</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B270" s="1">
         <v>6</v>
@@ -9419,15 +9799,15 @@
         <v>576</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B271" s="1">
         <v>6</v>
@@ -9439,15 +9819,15 @@
         <v>527</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B272" s="1">
         <v>6</v>
@@ -9459,15 +9839,15 @@
         <v>552</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B273" s="1">
         <v>6</v>
@@ -9479,15 +9859,15 @@
         <v>578</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B274" s="1">
         <v>6</v>
@@ -9499,15 +9879,15 @@
         <v>574</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B275" s="1">
         <v>6</v>
@@ -9519,15 +9899,15 @@
         <v>512</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B276" s="1">
         <v>6</v>
@@ -9539,15 +9919,15 @@
         <v>533</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B277" s="1">
         <v>6</v>
@@ -9559,15 +9939,15 @@
         <v>576</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B278" s="1">
         <v>6</v>
@@ -9579,15 +9959,15 @@
         <v>528</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B279" s="1">
         <v>6</v>
@@ -9599,15 +9979,15 @@
         <v>505</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B280" s="1">
         <v>6</v>
@@ -9619,15 +9999,15 @@
         <v>502</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B281" s="1">
         <v>6</v>
@@ -9639,15 +10019,15 @@
         <v>522</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B282" s="1">
         <v>6</v>
@@ -9659,15 +10039,15 @@
         <v>559</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B283" s="1">
         <v>6</v>
@@ -9679,15 +10059,15 @@
         <v>564</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B284" s="1">
         <v>6</v>
@@ -9699,15 +10079,15 @@
         <v>577</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B285" s="1">
         <v>6</v>
@@ -9719,15 +10099,15 @@
         <v>550</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B286" s="1">
         <v>6</v>
@@ -9739,15 +10119,15 @@
         <v>540</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B287" s="1">
         <v>6</v>
@@ -9759,15 +10139,15 @@
         <v>558</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B288" s="1">
         <v>6</v>
@@ -9779,15 +10159,15 @@
         <v>511</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B289" s="1">
         <v>6</v>
@@ -9799,15 +10179,15 @@
         <v>499</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B290" s="1">
         <v>6</v>
@@ -9819,15 +10199,15 @@
         <v>536</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B291" s="1">
         <v>6</v>
@@ -9839,18 +10219,18 @@
         <v>493</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>685</v>
+        <v>952</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B292" s="1">
         <v>7</v>
@@ -9862,10 +10242,10 @@
         <v>575</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="H292" s="1">
         <v>211</v>
@@ -9873,7 +10253,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B293" s="1">
         <v>7</v>
@@ -9885,15 +10265,15 @@
         <v>574</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B294" s="1">
         <v>7</v>
@@ -9905,15 +10285,15 @@
         <v>556</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B295" s="1">
         <v>7</v>
@@ -9925,15 +10305,15 @@
         <v>551</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B296" s="1">
         <v>7</v>
@@ -9945,7 +10325,7 @@
         <v>549</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>281</v>
@@ -9953,7 +10333,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B297" s="1">
         <v>7</v>
@@ -9965,15 +10345,15 @@
         <v>544</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B298" s="1">
         <v>7</v>
@@ -9985,15 +10365,15 @@
         <v>535</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B299" s="1">
         <v>7</v>
@@ -10005,15 +10385,15 @@
         <v>533</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B300" s="1">
         <v>7</v>
@@ -10025,15 +10405,15 @@
         <v>528</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B301" s="1">
         <v>7</v>
@@ -10045,15 +10425,15 @@
         <v>526</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B302" s="1">
         <v>7</v>
@@ -10065,15 +10445,15 @@
         <v>523</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B303" s="1">
         <v>7</v>
@@ -10085,15 +10465,15 @@
         <v>521</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B304" s="1">
         <v>7</v>
@@ -10105,15 +10485,15 @@
         <v>517</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B305" s="1">
         <v>7</v>
@@ -10125,15 +10505,15 @@
         <v>513</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B306" s="1">
         <v>7</v>
@@ -10145,15 +10525,15 @@
         <v>504</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B307" s="1">
         <v>7</v>
@@ -10165,15 +10545,15 @@
         <v>503</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B308" s="1">
         <v>7</v>
@@ -10185,21 +10565,21 @@
         <v>502</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B309" s="1">
         <v>7</v>
@@ -10211,21 +10591,21 @@
         <v>498</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>716</v>
+        <v>947</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B310" s="1">
         <v>7</v>
@@ -10237,21 +10617,21 @@
         <v>498</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B311" s="1">
         <v>7</v>
@@ -10263,21 +10643,21 @@
         <v>498</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B312" s="1">
         <v>7</v>
@@ -10289,15 +10669,15 @@
         <v>497</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B313" s="1">
         <v>7</v>
@@ -10309,21 +10689,21 @@
         <v>496</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B314" s="1">
         <v>7</v>
@@ -10335,21 +10715,21 @@
         <v>493</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B315" s="1">
         <v>8</v>
@@ -10361,13 +10741,13 @@
         <v>633</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H315" s="1">
         <v>985</v>
@@ -10375,7 +10755,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B316" s="1">
         <v>8</v>
@@ -10387,13 +10767,13 @@
         <v>584</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>780</v>
+        <v>953</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H316" s="1">
         <v>985</v>
@@ -10401,7 +10781,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B317" s="1">
         <v>8</v>
@@ -10413,10 +10793,10 @@
         <v>584</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="H317" s="1">
         <v>211</v>
@@ -10424,7 +10804,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="B318" s="1">
         <v>8</v>
@@ -10436,18 +10816,18 @@
         <v>544</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B319" s="1">
         <v>8</v>
@@ -10459,21 +10839,21 @@
         <v>506</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B320" s="1">
         <v>8</v>
@@ -10485,21 +10865,21 @@
         <v>565</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B321" s="1">
         <v>8</v>
@@ -10511,21 +10891,21 @@
         <v>518</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B322" s="1">
         <v>8</v>
@@ -10537,18 +10917,18 @@
         <v>537</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B323" s="1">
         <v>8</v>
@@ -10560,21 +10940,21 @@
         <v>526</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B324" s="1">
         <v>8</v>
@@ -10586,21 +10966,21 @@
         <v>534</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B325" s="1">
         <v>8</v>
@@ -10612,21 +10992,21 @@
         <v>500</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B326" s="1">
         <v>8</v>
@@ -10638,15 +11018,15 @@
         <v>559</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B327" s="1">
         <v>8</v>
@@ -10658,15 +11038,15 @@
         <v>537</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B328" s="1">
         <v>8</v>
@@ -10678,15 +11058,15 @@
         <v>538</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B329" s="1">
         <v>8</v>
@@ -10698,15 +11078,15 @@
         <v>553</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B330" s="1">
         <v>8</v>
@@ -10718,15 +11098,15 @@
         <v>517</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B331" s="1">
         <v>8</v>
@@ -10738,15 +11118,15 @@
         <v>546</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B332" s="1">
         <v>8</v>
@@ -10758,15 +11138,15 @@
         <v>538</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B333" s="1">
         <v>8</v>
@@ -10778,15 +11158,15 @@
         <v>507</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B334" s="1">
         <v>8</v>
@@ -10798,15 +11178,15 @@
         <v>505</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B335" s="1">
         <v>8</v>
@@ -10818,15 +11198,15 @@
         <v>548</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B336" s="1">
         <v>8</v>
@@ -10838,15 +11218,15 @@
         <v>503</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B337" s="1">
         <v>8</v>
@@ -10858,15 +11238,15 @@
         <v>509</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B338" s="1">
         <v>8</v>
@@ -10878,15 +11258,15 @@
         <v>503</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B339" s="1">
         <v>8</v>
@@ -10898,15 +11278,15 @@
         <v>493</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B340" s="1">
         <v>8</v>
@@ -10918,15 +11298,15 @@
         <v>515</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B341" s="1">
         <v>8</v>
@@ -10938,15 +11318,15 @@
         <v>494</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B342" s="1">
         <v>8</v>
@@ -10958,15 +11338,15 @@
         <v>509</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B343" s="1">
         <v>8</v>
@@ -10978,15 +11358,15 @@
         <v>499</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B344" s="1">
         <v>8</v>
@@ -10998,21 +11378,21 @@
         <v>507</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="B345" s="1">
         <v>9</v>
@@ -11024,13 +11404,13 @@
         <v>611</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H345" s="1">
         <v>211</v>
@@ -11038,7 +11418,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="B346" s="1">
         <v>9</v>
@@ -11050,21 +11430,21 @@
         <v>576</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="B347" s="1">
         <v>9</v>
@@ -11076,21 +11456,21 @@
         <v>574</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B348" s="1">
         <v>9</v>
@@ -11102,21 +11482,21 @@
         <v>570</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="B349" s="1">
         <v>9</v>
@@ -11128,21 +11508,21 @@
         <v>563</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B350" s="1">
         <v>9</v>
@@ -11154,21 +11534,21 @@
         <v>555</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>716</v>
+        <v>948</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B351" s="1">
         <v>9</v>
@@ -11180,21 +11560,21 @@
         <v>547</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="B352" s="1">
         <v>9</v>
@@ -11206,21 +11586,21 @@
         <v>546</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B353" s="1">
         <v>9</v>
@@ -11232,21 +11612,21 @@
         <v>544</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B354" s="1">
         <v>9</v>
@@ -11258,15 +11638,15 @@
         <v>537</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="B355" s="1">
         <v>9</v>
@@ -11278,21 +11658,21 @@
         <v>532</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="B356" s="1">
         <v>9</v>
@@ -11304,21 +11684,21 @@
         <v>525</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B357" s="1">
         <v>9</v>
@@ -11330,21 +11710,21 @@
         <v>519</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="B358" s="1">
         <v>9</v>
@@ -11356,21 +11736,21 @@
         <v>518</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="B359" s="1">
         <v>9</v>
@@ -11382,21 +11762,21 @@
         <v>518</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B360" s="1">
         <v>9</v>
@@ -11408,21 +11788,21 @@
         <v>516</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="B361" s="1">
         <v>9</v>
@@ -11434,21 +11814,21 @@
         <v>515</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B362" s="1">
         <v>9</v>
@@ -11460,21 +11840,21 @@
         <v>510</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B363" s="1">
         <v>9</v>
@@ -11486,21 +11866,21 @@
         <v>509</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B364" s="1">
         <v>9</v>
@@ -11512,21 +11892,21 @@
         <v>508</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B365" s="1">
         <v>9</v>
@@ -11538,21 +11918,21 @@
         <v>507</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B366" s="1">
         <v>9</v>
@@ -11564,21 +11944,21 @@
         <v>504</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B367" s="1">
         <v>9</v>
@@ -11590,21 +11970,21 @@
         <v>500</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B368" s="1">
         <v>10</v>
@@ -11616,13 +11996,13 @@
         <v>597</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H368" s="1">
         <v>211</v>
@@ -11630,7 +12010,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B369" s="1">
         <v>10</v>
@@ -11642,13 +12022,13 @@
         <v>582</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>281</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H369" s="1">
         <v>211</v>
@@ -11656,7 +12036,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B370" s="1">
         <v>10</v>
@@ -11668,13 +12048,13 @@
         <v>578</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H370" s="1">
         <v>211</v>
@@ -11682,7 +12062,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B371" s="1">
         <v>10</v>
@@ -11694,13 +12074,13 @@
         <v>572</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H371" s="1">
         <v>211</v>
@@ -11708,7 +12088,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B372" s="1">
         <v>10</v>
@@ -11720,15 +12100,15 @@
         <v>557</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B373" s="1">
         <v>10</v>
@@ -11740,21 +12120,21 @@
         <v>553</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B374" s="1">
         <v>10</v>
@@ -11766,21 +12146,21 @@
         <v>551</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="B375" s="1">
         <v>10</v>
@@ -11792,21 +12172,21 @@
         <v>550</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B376" s="1">
         <v>10</v>
@@ -11818,21 +12198,21 @@
         <v>543</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="B377" s="1">
         <v>10</v>
@@ -11844,21 +12224,21 @@
         <v>540</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B378" s="1">
         <v>10</v>
@@ -11870,21 +12250,21 @@
         <v>538</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="B379" s="1">
         <v>10</v>
@@ -11896,21 +12276,21 @@
         <v>537</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="B380" s="1">
         <v>10</v>
@@ -11922,15 +12302,15 @@
         <v>528</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B381" s="1">
         <v>10</v>
@@ -11942,15 +12322,15 @@
         <v>523</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B382" s="1">
         <v>10</v>
@@ -11962,15 +12342,15 @@
         <v>520</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="B383" s="1">
         <v>10</v>
@@ -11982,15 +12362,15 @@
         <v>519</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="B384" s="1">
         <v>10</v>
@@ -12002,15 +12382,15 @@
         <v>518</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B385" s="1">
         <v>10</v>
@@ -12022,15 +12402,15 @@
         <v>516</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B386" s="1">
         <v>10</v>
@@ -12042,15 +12422,15 @@
         <v>515</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="B387" s="1">
         <v>10</v>
@@ -12062,15 +12442,15 @@
         <v>514</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B388" s="1">
         <v>10</v>
@@ -12082,15 +12462,15 @@
         <v>514</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B389" s="1">
         <v>10</v>
@@ -12102,15 +12482,15 @@
         <v>509</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="B390" s="1">
         <v>10</v>
@@ -12122,15 +12502,15 @@
         <v>507</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B391" s="1">
         <v>10</v>
@@ -12142,15 +12522,15 @@
         <v>506</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="B392" s="1">
         <v>10</v>
@@ -12162,15 +12542,15 @@
         <v>500</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B393" s="1">
         <v>10</v>
@@ -12182,15 +12562,15 @@
         <v>499</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B394" s="1">
         <v>11</v>
@@ -12202,15 +12582,15 @@
         <v>568</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="B395" s="1">
         <v>11</v>
@@ -12222,15 +12602,15 @@
         <v>506</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="B396" s="1">
         <v>11</v>
@@ -12242,15 +12622,15 @@
         <v>545</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B397" s="1">
         <v>11</v>
@@ -12262,15 +12642,15 @@
         <v>540</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="B398" s="1">
         <v>11</v>
@@ -12282,15 +12662,15 @@
         <v>554</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B399" s="1">
         <v>11</v>
@@ -12302,15 +12682,15 @@
         <v>554</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B400" s="1">
         <v>11</v>
@@ -12322,15 +12702,15 @@
         <v>529</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B401" s="1">
         <v>11</v>
@@ -12342,15 +12722,15 @@
         <v>544</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B402" s="1">
         <v>11</v>
@@ -12362,15 +12742,15 @@
         <v>513</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="B403" s="1">
         <v>11</v>
@@ -12382,15 +12762,15 @@
         <v>522</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B404" s="1">
         <v>11</v>
@@ -12402,15 +12782,15 @@
         <v>528</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B405" s="1">
         <v>11</v>
@@ -12422,15 +12802,15 @@
         <v>515</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="B406" s="1">
         <v>11</v>
@@ -12442,15 +12822,15 @@
         <v>531</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="B407" s="1">
         <v>11</v>
@@ -12462,15 +12842,15 @@
         <v>522</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="B408" s="1">
         <v>11</v>
@@ -12482,15 +12862,15 @@
         <v>508</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B409" s="1">
         <v>11</v>
@@ -12502,15 +12882,15 @@
         <v>512</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B410" s="1">
         <v>11</v>
@@ -12522,15 +12902,15 @@
         <v>533</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B411" s="1">
         <v>11</v>
@@ -12542,15 +12922,15 @@
         <v>534</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B412" s="1">
         <v>11</v>
@@ -12562,15 +12942,15 @@
         <v>539</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B413" s="1">
         <v>11</v>
@@ -12582,15 +12962,15 @@
         <v>548</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B414" s="1">
         <v>11</v>
@@ -12602,18 +12982,18 @@
         <v>542</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B415" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>279</v>
@@ -12622,10 +13002,1462 @@
         <v>548</v>
       </c>
       <c r="E415" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B416" s="1">
+        <v>12</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D416" s="1">
+        <v>511</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B417" s="1">
+        <v>12</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D417" s="1">
+        <v>551</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B418" s="1">
+        <v>12</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D418" s="1">
+        <v>513</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B419" s="1">
+        <v>12</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D419" s="1">
+        <v>521</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B420" s="1">
+        <v>12</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D420" s="1">
+        <v>527</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B421" s="1">
+        <v>12</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D421" s="1">
+        <v>505</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F421" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="F415" s="2" t="s">
-        <v>553</v>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B422" s="1">
+        <v>12</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D422" s="1">
+        <v>554</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B423" s="1">
+        <v>12</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D423" s="1">
+        <v>541</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B424" s="1">
+        <v>12</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D424" s="1">
+        <v>492</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B425" s="1">
+        <v>12</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D425" s="1">
+        <v>525</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B426" s="1">
+        <v>12</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D426" s="1">
+        <v>491</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B427" s="1">
+        <v>12</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D427" s="1">
+        <v>501</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B428" s="1">
+        <v>12</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D428" s="1">
+        <v>533</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B429" s="1">
+        <v>12</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D429" s="1">
+        <v>532</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B430" s="1">
+        <v>12</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D430" s="1">
+        <v>516</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B431" s="1">
+        <v>12</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D431" s="1">
+        <v>569</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B432" s="1">
+        <v>12</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D432" s="1">
+        <v>526</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B433" s="1">
+        <v>12</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D433" s="1">
+        <v>535</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B434" s="1">
+        <v>12</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D434" s="1">
+        <v>569</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B435" s="1">
+        <v>12</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D435" s="1">
+        <v>562</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B436" s="1">
+        <v>12</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D436" s="1">
+        <v>555</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B437" s="1">
+        <v>12</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D437" s="1">
+        <v>537</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B438" s="1">
+        <v>12</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D438" s="1">
+        <v>526</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B439" s="1">
+        <v>12</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D439" s="1">
+        <v>506</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B440" s="1">
+        <v>12</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D440" s="1">
+        <v>503</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B441" s="1">
+        <v>12</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D441" s="1">
+        <v>529</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B442" s="1">
+        <v>12</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D442" s="1">
+        <v>525</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B443" s="1">
+        <v>12</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D443" s="1">
+        <v>551</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B444" s="1">
+        <v>12</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D444" s="1">
+        <v>511</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B445" s="1">
+        <v>12</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D445" s="1">
+        <v>558</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B446" s="1">
+        <v>12</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D446" s="1">
+        <v>508</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B447" s="1">
+        <v>12</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D447" s="1">
+        <v>525</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B448" s="1">
+        <v>12</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D448" s="1">
+        <v>511</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B449" s="1">
+        <v>12</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D449" s="1">
+        <v>506</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B450" s="1">
+        <v>12</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D450" s="1">
+        <v>493</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B451" s="1">
+        <v>12</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D451" s="1">
+        <v>502</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B452" s="1">
+        <v>13</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D452" s="1">
+        <v>503</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B453" s="1">
+        <v>13</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D453" s="1">
+        <v>516</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B454" s="1">
+        <v>13</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D454" s="1">
+        <v>508</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B455" s="1">
+        <v>13</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D455" s="1">
+        <v>499</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B456" s="1">
+        <v>13</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D456" s="1">
+        <v>516</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B457" s="1">
+        <v>13</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D457" s="1">
+        <v>541</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B458" s="1">
+        <v>13</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D458" s="1">
+        <v>509</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B459" s="1">
+        <v>13</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D459" s="1">
+        <v>533</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B460" s="1">
+        <v>14</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D460" s="1">
+        <v>611</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H460" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B461" s="1">
+        <v>14</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D461" s="1">
+        <v>595</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B462" s="1">
+        <v>14</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D462" s="1">
+        <v>594</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B463" s="1">
+        <v>14</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D463" s="1">
+        <v>589</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B464" s="1">
+        <v>14</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D464" s="1">
+        <v>567</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B465" s="1">
+        <v>14</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D465" s="1">
+        <v>595</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B466" s="1">
+        <v>14</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D466" s="1">
+        <v>577</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B467" s="1">
+        <v>15</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D467" s="1">
+        <v>579</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B468" s="1">
+        <v>15</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D468" s="1">
+        <v>637</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="H468" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B469" s="1">
+        <v>15</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D469" s="1">
+        <v>608</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B470" s="1">
+        <v>15</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D470" s="3">
+        <v>602</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B471" s="1">
+        <v>15</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D471" s="3">
+        <v>600</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B472" s="1">
+        <v>15</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D472" s="3">
+        <v>600</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B473" s="1">
+        <v>15</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D473" s="3">
+        <v>593</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B474" s="1">
+        <v>15</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D474" s="3">
+        <v>592</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B475" s="1">
+        <v>15</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D475" s="3">
+        <v>588</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B476" s="1">
+        <v>15</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D476" s="3">
+        <v>586</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B477" s="1">
+        <v>15</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D477" s="3">
+        <v>578</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B478" s="1">
+        <v>15</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D478" s="3">
+        <v>572</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B479" s="1">
+        <v>15</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D479" s="3">
+        <v>571</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B480" s="1">
+        <v>15</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D480" s="1">
+        <v>563</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B481" s="1">
+        <v>16</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D481" s="1">
+        <v>614</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H481" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B482" s="1">
+        <v>16</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D482" s="3">
+        <v>606</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="H482" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B483" s="1">
+        <v>16</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D483" s="3">
+        <v>591</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B484" s="1">
+        <v>16</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D484" s="3">
+        <v>589</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B485" s="1">
+        <v>16</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D485" s="3">
+        <v>588</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B486" s="1">
+        <v>16</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D486" s="3">
+        <v>588</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B487" s="1">
+        <v>16</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D487" s="3">
+        <v>578</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/@data/2021.xlsx
+++ b/@data/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAABEDA-2607-4FFF-AA37-A4B1536631C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD174BF2-15D8-4411-9DC9-A1D7C275B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1101">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3445,6 +3445,266 @@
   <si>
     <t>江文倩</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文程馨</t>
+  </si>
+  <si>
+    <t>程思云</t>
+  </si>
+  <si>
+    <t>张孝宇</t>
+  </si>
+  <si>
+    <t>社会工作</t>
+  </si>
+  <si>
+    <t>万俊辰</t>
+  </si>
+  <si>
+    <t>交通管理</t>
+  </si>
+  <si>
+    <t>邵琪琪</t>
+  </si>
+  <si>
+    <t>张晗</t>
+  </si>
+  <si>
+    <t>黑龙江大学</t>
+  </si>
+  <si>
+    <t>叶梦婷</t>
+  </si>
+  <si>
+    <t>中国劳动关系学院</t>
+  </si>
+  <si>
+    <t>张宇欣</t>
+  </si>
+  <si>
+    <t>成都理工大学</t>
+  </si>
+  <si>
+    <t>黄怡宁</t>
+  </si>
+  <si>
+    <t>何雅慧</t>
+  </si>
+  <si>
+    <t>学前教育</t>
+  </si>
+  <si>
+    <t>吕怡璠</t>
+  </si>
+  <si>
+    <t>吴雅唯</t>
+  </si>
+  <si>
+    <t>阜阳师范大学范大</t>
+  </si>
+  <si>
+    <t>黄杨杨</t>
+  </si>
+  <si>
+    <t>历史学（师范）</t>
+  </si>
+  <si>
+    <t>张馨予</t>
+  </si>
+  <si>
+    <t>刘淑洁</t>
+  </si>
+  <si>
+    <t>英语（师范）</t>
+  </si>
+  <si>
+    <t>刘沁</t>
+  </si>
+  <si>
+    <t>程晨</t>
+  </si>
+  <si>
+    <t>严洪汝</t>
+  </si>
+  <si>
+    <t>中南民族大学</t>
+  </si>
+  <si>
+    <t>董欣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安庆师范大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈健</t>
+  </si>
+  <si>
+    <t>汤思涵</t>
+  </si>
+  <si>
+    <t>张序欣</t>
+  </si>
+  <si>
+    <t>涂梦婷</t>
+  </si>
+  <si>
+    <t>江西财经大学</t>
+  </si>
+  <si>
+    <t>王佩琳</t>
+  </si>
+  <si>
+    <t>江丹清</t>
+  </si>
+  <si>
+    <t>思想政治教育</t>
+  </si>
+  <si>
+    <t>陈艳秋</t>
+  </si>
+  <si>
+    <t>翻译（师范）</t>
+  </si>
+  <si>
+    <t>惠钰茹</t>
+  </si>
+  <si>
+    <t>上海政法学院</t>
+  </si>
+  <si>
+    <t>陈爽</t>
+  </si>
+  <si>
+    <t>法学专业</t>
+  </si>
+  <si>
+    <t>何郭瑶</t>
+  </si>
+  <si>
+    <t>公共事业管理专业</t>
+  </si>
+  <si>
+    <t>王梦彤</t>
+  </si>
+  <si>
+    <t>马高杰</t>
+  </si>
+  <si>
+    <t>历史学</t>
+  </si>
+  <si>
+    <t>官梓娴</t>
+  </si>
+  <si>
+    <t>重庆师范大学</t>
+  </si>
+  <si>
+    <t>亦心</t>
+  </si>
+  <si>
+    <t>朱舟航</t>
+  </si>
+  <si>
+    <t>江西师范大学</t>
+  </si>
+  <si>
+    <t>李孜</t>
+  </si>
+  <si>
+    <t>数学类</t>
+  </si>
+  <si>
+    <t>殷睿孜</t>
+  </si>
+  <si>
+    <t>网络与新媒体</t>
+  </si>
+  <si>
+    <t>樊静宜</t>
+  </si>
+  <si>
+    <t>伍海博</t>
+  </si>
+  <si>
+    <t>运动健康</t>
+  </si>
+  <si>
+    <t>熊瑞</t>
+  </si>
+  <si>
+    <t>袁思怡</t>
+  </si>
+  <si>
+    <t>俞秋格</t>
+  </si>
+  <si>
+    <t>地理科学</t>
+  </si>
+  <si>
+    <t>陈明奚</t>
+  </si>
+  <si>
+    <t>刘闯</t>
+  </si>
+  <si>
+    <t>浙江大学城市学院</t>
+  </si>
+  <si>
+    <t>会展经济与管理</t>
+  </si>
+  <si>
+    <t>秦高天</t>
+  </si>
+  <si>
+    <t>市场营销</t>
+  </si>
+  <si>
+    <t>任啸天</t>
+  </si>
+  <si>
+    <t>李灏黎</t>
+  </si>
+  <si>
+    <t>湖北大学</t>
+  </si>
+  <si>
+    <t>地理教育</t>
+  </si>
+  <si>
+    <t>袁洁</t>
+  </si>
+  <si>
+    <t>何雨潇</t>
+  </si>
+  <si>
+    <t>地理信息科学</t>
+  </si>
+  <si>
+    <t>李若谷</t>
+  </si>
+  <si>
+    <t>田彤</t>
+  </si>
+  <si>
+    <t>汉语言文学教育</t>
+  </si>
+  <si>
+    <t>闫思齐</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>许文韬</t>
+  </si>
+  <si>
+    <t>西安建筑科技大学</t>
+  </si>
+  <si>
+    <t>王羚欢</t>
   </si>
 </sst>
 </file>
@@ -3796,10 +4056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J487"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E463" sqref="E463"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E446" sqref="E446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14460,6 +14720,1155 @@
         <v>481</v>
       </c>
     </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B488" s="1">
+        <v>16</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D488" s="1">
+        <v>575</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B489" s="1">
+        <v>16</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D489" s="1">
+        <v>572</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B490" s="1">
+        <v>16</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D490" s="1">
+        <v>565</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B491" s="1">
+        <v>16</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D491" s="1">
+        <v>531</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B492" s="1">
+        <v>17</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D492" s="1">
+        <v>573</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B493" s="1">
+        <v>17</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D493" s="1">
+        <v>588</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B494" s="1">
+        <v>17</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D494" s="1">
+        <v>586</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B495" s="1">
+        <v>17</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D495" s="1">
+        <v>600</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B496" s="1">
+        <v>17</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D496" s="1">
+        <v>576</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B497" s="1">
+        <v>17</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D497" s="1">
+        <v>567</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B498" s="1">
+        <v>17</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D498" s="1">
+        <v>564</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B499" s="1">
+        <v>17</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D499" s="1">
+        <v>561</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B500" s="1">
+        <v>18</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D500" s="1">
+        <v>593</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B501" s="1">
+        <v>18</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D501" s="1">
+        <v>578</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B502" s="1">
+        <v>18</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D502" s="1">
+        <v>567</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B503" s="1">
+        <v>18</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D503" s="1">
+        <v>584</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B504" s="1">
+        <v>18</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D504" s="1">
+        <v>597</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B505" s="1">
+        <v>18</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D505" s="1">
+        <v>602</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B506" s="1">
+        <v>18</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D506" s="1">
+        <v>578</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B507" s="1">
+        <v>18</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D507" s="1">
+        <v>577</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B508" s="1">
+        <v>18</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D508" s="1">
+        <v>578</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B509" s="1">
+        <v>18</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D509" s="1">
+        <v>605</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B510" s="1">
+        <v>18</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D510" s="1">
+        <v>588</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B511" s="1">
+        <v>19</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D511" s="1">
+        <v>587</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B512" s="1">
+        <v>19</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D512" s="1">
+        <v>570</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B513" s="1">
+        <v>19</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D513" s="1">
+        <v>562</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B514" s="1">
+        <v>19</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D514" s="1">
+        <v>603</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B515" s="1">
+        <v>19</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D515" s="1">
+        <v>596</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B516" s="1">
+        <v>19</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D516" s="1">
+        <v>565</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B517" s="1">
+        <v>20</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D517" s="1">
+        <v>599</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B518" s="1">
+        <v>20</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D518" s="1">
+        <v>596</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B519" s="1">
+        <v>20</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D519" s="1">
+        <v>595</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B520" s="1">
+        <v>20</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D520" s="1">
+        <v>594</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B521" s="1">
+        <v>20</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D521" s="1">
+        <v>592</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B522" s="1">
+        <v>20</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D522" s="1">
+        <v>585</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B523" s="1">
+        <v>20</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D523" s="1">
+        <v>579</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B524" s="1">
+        <v>20</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D524" s="1">
+        <v>573</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B525" s="1">
+        <v>20</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D525" s="1">
+        <v>567</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B526" s="1">
+        <v>20</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D526" s="1">
+        <v>566</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B527" s="1">
+        <v>20</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D527" s="1">
+        <v>566</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B528" s="1">
+        <v>20</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D528" s="1">
+        <v>563</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B529" s="1">
+        <v>20</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D529" s="1">
+        <v>590</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B530" s="1">
+        <v>20</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D530" s="1">
+        <v>573</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B531" s="1">
+        <v>21</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D531" s="1">
+        <v>619</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H531" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B532" s="1">
+        <v>21</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D532" s="1">
+        <v>575</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B533" s="1">
+        <v>21</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D533" s="1">
+        <v>619</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B534" s="1">
+        <v>21</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D534" s="1">
+        <v>603</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B535" s="1">
+        <v>21</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D535" s="1">
+        <v>612</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B536" s="1">
+        <v>21</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D536" s="1">
+        <v>597</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B537" s="1">
+        <v>21</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D537" s="1">
+        <v>567</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B538" s="1">
+        <v>21</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D538" s="1">
+        <v>570</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B539" s="1">
+        <v>21</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D539" s="1">
+        <v>562</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B540" s="1">
+        <v>21</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D540" s="1">
+        <v>595</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B541" s="1">
+        <v>21</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D541" s="1">
+        <v>576</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:H109">
     <sortCondition descending="1" ref="D98:D109"/>

--- a/@data/2021.xlsx
+++ b/@data/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD174BF2-15D8-4411-9DC9-A1D7C275B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB12BF-D560-41C0-9F17-9587D72E0706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1384">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3705,6 +3705,1110 @@
   </si>
   <si>
     <t>王羚欢</t>
+  </si>
+  <si>
+    <t>杨梦婷</t>
+  </si>
+  <si>
+    <t>南京财经大学</t>
+  </si>
+  <si>
+    <t>法语</t>
+  </si>
+  <si>
+    <t>冯章苗</t>
+  </si>
+  <si>
+    <t>网络与传媒</t>
+  </si>
+  <si>
+    <t>谢剑</t>
+  </si>
+  <si>
+    <t>公共事业管理</t>
+  </si>
+  <si>
+    <t>桂再轩</t>
+  </si>
+  <si>
+    <t>浙大城市学院</t>
+  </si>
+  <si>
+    <t>王子恒</t>
+  </si>
+  <si>
+    <t>胡蝶</t>
+  </si>
+  <si>
+    <t>园林专业</t>
+  </si>
+  <si>
+    <t>周蕾</t>
+  </si>
+  <si>
+    <t>李天然</t>
+  </si>
+  <si>
+    <t>于昊</t>
+  </si>
+  <si>
+    <t>徐佳怡</t>
+  </si>
+  <si>
+    <t>聂文涛</t>
+  </si>
+  <si>
+    <t>石凌</t>
+  </si>
+  <si>
+    <t>天津财经大学</t>
+  </si>
+  <si>
+    <t>张光俊</t>
+  </si>
+  <si>
+    <t>陈天任</t>
+  </si>
+  <si>
+    <t>程聪</t>
+  </si>
+  <si>
+    <t>许子莹</t>
+  </si>
+  <si>
+    <t>王子叶</t>
+  </si>
+  <si>
+    <t>中医学</t>
+  </si>
+  <si>
+    <t>杨小草</t>
+  </si>
+  <si>
+    <t>葛新茹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方科技大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘阳普</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海军大连舰艇学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空军工程大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥信息系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑妍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思主义理论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈晓阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉伯语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂诗洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雨桐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋志浩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨肖潇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何颖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭颖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张振</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪骏成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王世强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘瑞涵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴茵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱忆</t>
+  </si>
+  <si>
+    <t>吴高胤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡润涵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂鸣鹤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘子淼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张凯迪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包诗文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽师范大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武警海警学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略支援部队信息工程大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆军军事交通学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽医科大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空军航空大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭军工程大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽工程大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳北理莫斯科大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国防科技大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽公安职业学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑事侦查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息对抗技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学与应用数学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理科学类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥信息系统工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮机工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作战环境工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蕾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈柔烨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡静雯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张乐天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶斌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高灿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪彤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何德馨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何琳君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周栎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杨子懿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周安涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐佑坤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊瑶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱奇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌玥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘珂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李昕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟慕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门科技大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄山学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长江大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东工艺美术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽警官职业学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽财经大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆艺术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巢湖学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮南师范学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南通大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周口师范学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津理工大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治安管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育学类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉传达设计专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播电视编导专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐学专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休闲体育专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育教师专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会体育指导与管理专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈表演（体育舞蹈、健美操方向）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑事执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺美术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济与贸易类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播音与主持艺术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会体育指导与管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育教育（师范）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐学（师范）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学教育（定向培养）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张孟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晗萌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈利宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢培林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈文韵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李靖琪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高倩倩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王祎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师紫怡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡靖钧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱艳梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申浩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘子健</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗佳明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张江慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴彤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任旭康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩湘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶锦涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白玉洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶子健</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕钰雯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张锦琦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈媛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽工业大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京体育学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亳州学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽艺术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安美术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滁州学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海视觉艺术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海体育大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨体育学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥经济学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海工程技术大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜阳师范学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉传达设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警务指挥与战术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表演</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史教育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影视摄影与制作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动康复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈表演专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡梓雯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储跃文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘奕蕾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章韵依</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞慧婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨艺帆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李汇涵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘妍珺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈露菲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李金蔚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐望宁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘俊皓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高寒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹依文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禇昕洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩舒芯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐梦婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑余涵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪杨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周政</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘芸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>景德镇学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国美术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东艺术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津艺术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北美术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西艺术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东华大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉设计工程学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白城师范学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南工业大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安工程大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计学类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞蹈表演</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空服务艺术与管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐表演</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐表演（演奏）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘画（水彩画）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国画</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术与科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐表演（流行音乐）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻烨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢炽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈子怡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周子骏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱树峰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程奕杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管华庆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李颖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李文萱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍科轩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡良彤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘欣雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章邵媛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爱陈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐梓妍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>许魏子恒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何正文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路怡敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>何洋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴奎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪心茹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王钰然</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尚婉婷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌埠学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江越秀外国语学院</t>
+  </si>
+  <si>
+    <t>安徽新华学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京晓庄学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉首大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西财经大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安石油大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽大学江淮学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜陵学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林艺术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江工商大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林师范大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁迅美术学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西南民族大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>池州学院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学教育（师范）（为宁国市定向培养）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏剧与影视文学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书法学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏剧影视文学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播电视编导</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3782,15 +4886,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1" connectionId="1" xr16:uid="{F4EEB26A-85CC-41D2-A22D-F118EFF026CD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档" connectionId="2" xr16:uid="{856B6005-4345-4BF0-BD9F-03211A69D114}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档" connectionId="2" xr16:uid="{856B6005-4345-4BF0-BD9F-03211A69D114}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档_1" connectionId="3" xr16:uid="{FAA4FD3F-0F00-4DE6-868B-B4B9E7D73EF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="新建文本文档_1" connectionId="3" xr16:uid="{FAA4FD3F-0F00-4DE6-868B-B4B9E7D73EF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="1" connectionId="1" xr16:uid="{F4EEB26A-85CC-41D2-A22D-F118EFF026CD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4056,10 +5160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E446" sqref="E446"/>
+    <sheetView tabSelected="1" topLeftCell="A428" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G580" sqref="G580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4069,7 +5173,7 @@
     <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.88671875" style="1"/>
   </cols>
@@ -15867,6 +16971,2880 @@
       </c>
       <c r="H541" s="1" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B542" s="1">
+        <v>21</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D542" s="1">
+        <v>612</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B543" s="1">
+        <v>21</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D543" s="1">
+        <v>582</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B544" s="1">
+        <v>22</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D544" s="1">
+        <v>624</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H544" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B545" s="1">
+        <v>22</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D545" s="1">
+        <v>592</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B546" s="1">
+        <v>22</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D546" s="1">
+        <v>592</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B547" s="1">
+        <v>22</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D547" s="1">
+        <v>586</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B548" s="1">
+        <v>22</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D548" s="1">
+        <v>584</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B549" s="1">
+        <v>22</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D549" s="1">
+        <v>577</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B550" s="1">
+        <v>22</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D550" s="1">
+        <v>572</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B551" s="1">
+        <v>22</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D551" s="1">
+        <v>571</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B552" s="1">
+        <v>22</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D552" s="1">
+        <v>562</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B553" s="1">
+        <v>24</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D553" s="1">
+        <v>599</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B554" s="1">
+        <v>24</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D554" s="1">
+        <v>569</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B555" s="1">
+        <v>24</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D555" s="1">
+        <v>581</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B556" s="1">
+        <v>24</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D556" s="1">
+        <v>568</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B557" s="1">
+        <v>24</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D557" s="1">
+        <v>570</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B558" s="1">
+        <v>24</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D558" s="1">
+        <v>578</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B559" s="1">
+        <v>24</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D559" s="1">
+        <v>599</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B560" s="1">
+        <v>1</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D560" s="1">
+        <v>630</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B561" s="1">
+        <v>1</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D561" s="1">
+        <v>601</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B562" s="1">
+        <v>1</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D562" s="1">
+        <v>578</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B563" s="1">
+        <v>2</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D563" s="1">
+        <v>639</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B564" s="1">
+        <v>2</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D564" s="1">
+        <v>629</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B565" s="1">
+        <v>2</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D565" s="1">
+        <v>600</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B566" s="1">
+        <v>2</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D566" s="1">
+        <v>592</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B567" s="1">
+        <v>3</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D567" s="1">
+        <v>588</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B568" s="1">
+        <v>3</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D568" s="1">
+        <v>590</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B569" s="1">
+        <v>3</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D569" s="1">
+        <v>551</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B570" s="1">
+        <v>4</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D570" s="1">
+        <v>548</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B571" s="1">
+        <v>5</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D571" s="1">
+        <v>546</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B572" s="1">
+        <v>5</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D572" s="1">
+        <v>603</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B573" s="1">
+        <v>5</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D573" s="1">
+        <v>509</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B574" s="1">
+        <v>5</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D574" s="1">
+        <v>581</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B575" s="1">
+        <v>5</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D575" s="1">
+        <v>520</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B576" s="1">
+        <v>6</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D576" s="1">
+        <v>616</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B577" s="1">
+        <v>6</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D577" s="1">
+        <v>533</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B578" s="1">
+        <v>6</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D578" s="1">
+        <v>554</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B579" s="1">
+        <v>6</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D579" s="1">
+        <v>548</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B580" s="1">
+        <v>8</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D580" s="1">
+        <v>628</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B581" s="1">
+        <v>9</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D581" s="1">
+        <v>621</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B582" s="1">
+        <v>10</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D582" s="1">
+        <v>544</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B583" s="1">
+        <v>10</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D583" s="1">
+        <v>530</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B584" s="1">
+        <v>10</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D584" s="1">
+        <v>515</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B585" s="1">
+        <v>11</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D585" s="1">
+        <v>522</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B586" s="1">
+        <v>12</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D586" s="1">
+        <v>531</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B587" s="1">
+        <v>14</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D587" s="1">
+        <v>562</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B588" s="1">
+        <v>14</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D588" s="1">
+        <v>463</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B589" s="1">
+        <v>14</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D589" s="1">
+        <v>499</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B590" s="1">
+        <v>14</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D590" s="1">
+        <v>497</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B591" s="1">
+        <v>15</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D591" s="1">
+        <v>490</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B592" s="1">
+        <v>15</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D592" s="1">
+        <v>502</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B593" s="1">
+        <v>15</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D593" s="1">
+        <v>446</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B594" s="1">
+        <v>15</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D594" s="1">
+        <v>515</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B595" s="1">
+        <v>16</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D595" s="1">
+        <v>588</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B596" s="1">
+        <v>16</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D596" s="1">
+        <v>451</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B597" s="1">
+        <v>16</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D597" s="1">
+        <v>458</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B598" s="1">
+        <v>17</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D598" s="1">
+        <v>470</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B599" s="1">
+        <v>17</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D599" s="1">
+        <v>437</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B600" s="1">
+        <v>17</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D600" s="1">
+        <v>431</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B601" s="1">
+        <v>17</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D601" s="1">
+        <v>455</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B602" s="1">
+        <v>17</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D602" s="1">
+        <v>445</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B603" s="1">
+        <v>17</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D603" s="1">
+        <v>431</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B604" s="1">
+        <v>17</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D604" s="1">
+        <v>487</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B605" s="1">
+        <v>17</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D605" s="1">
+        <v>463</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B606" s="1">
+        <v>18</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D606" s="1">
+        <v>392</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B607" s="1">
+        <v>18</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D607" s="1">
+        <v>537</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B608" s="1">
+        <v>19</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D608" s="1">
+        <v>435</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B609" s="1">
+        <v>19</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D609" s="1">
+        <v>486</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B610" s="1">
+        <v>19</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D610" s="1">
+        <v>471</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B611" s="1">
+        <v>19</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D611" s="1">
+        <v>341</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B612" s="1">
+        <v>19</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D612" s="1">
+        <v>547</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B613" s="1">
+        <v>19</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D613" s="1">
+        <v>483</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B614" s="1">
+        <v>19</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D614" s="1">
+        <v>418</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B615" s="1">
+        <v>20</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D615" s="1">
+        <v>490</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B616" s="1">
+        <v>20</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D616" s="1">
+        <v>478</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B617" s="1">
+        <v>20</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D617" s="1">
+        <v>388</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B618" s="1">
+        <v>20</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D618" s="1">
+        <v>434</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B619" s="1">
+        <v>20</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D619" s="1">
+        <v>545</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B620" s="1">
+        <v>20</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D620" s="1">
+        <v>540</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B621" s="1">
+        <v>21</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D621" s="1">
+        <v>570</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B622" s="1">
+        <v>21</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D622" s="1">
+        <v>558</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B623" s="1">
+        <v>21</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D623" s="1">
+        <v>500</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B624" s="1">
+        <v>21</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D624" s="1">
+        <v>583</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B625" s="1">
+        <v>21</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D625" s="1">
+        <v>463</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B626" s="1">
+        <v>21</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D626" s="1">
+        <v>408</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B627" s="1">
+        <v>21</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D627" s="1">
+        <v>410</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B628" s="1">
+        <v>21</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D628" s="1">
+        <v>542</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B629" s="1">
+        <v>22</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D629" s="1">
+        <v>446</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B630" s="1">
+        <v>22</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D630" s="1">
+        <v>469</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B631" s="1">
+        <v>22</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D631" s="1">
+        <v>398</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B632" s="1">
+        <v>22</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D632" s="1">
+        <v>426</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B633" s="1">
+        <v>23</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D633" s="1">
+        <v>458</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B634" s="1">
+        <v>23</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D634" s="1">
+        <v>423</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B635" s="1">
+        <v>23</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D635" s="1">
+        <v>432</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B636" s="1">
+        <v>23</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D636" s="1">
+        <v>470</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B637" s="1">
+        <v>23</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D637" s="1">
+        <v>490</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B638" s="1">
+        <v>23</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D638" s="1">
+        <v>512</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B639" s="1">
+        <v>23</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D639" s="1">
+        <v>388</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B640" s="1">
+        <v>23</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D640" s="1">
+        <v>472</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B641" s="1">
+        <v>23</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D641" s="1">
+        <v>416</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B642" s="1">
+        <v>23</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D642" s="1">
+        <v>508</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B643" s="1">
+        <v>23</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D643" s="1">
+        <v>499</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B644" s="1">
+        <v>23</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D644" s="1">
+        <v>422</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B645" s="1">
+        <v>23</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D645" s="1">
+        <v>469</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B646" s="1">
+        <v>23</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D646" s="1">
+        <v>393</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B647" s="1">
+        <v>23</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D647" s="1">
+        <v>540</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B648" s="1">
+        <v>23</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D648" s="1">
+        <v>473</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B649" s="1">
+        <v>23</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D649" s="1">
+        <v>399</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B650" s="1">
+        <v>23</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D650" s="1">
+        <v>421</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B651" s="1">
+        <v>23</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D651" s="1">
+        <v>467</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B652" s="1">
+        <v>23</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D652" s="1">
+        <v>458</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B653" s="1">
+        <v>23</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D653" s="1">
+        <v>432</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B654" s="1">
+        <v>23</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D654" s="1">
+        <v>483</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B655" s="1">
+        <v>23</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D655" s="1">
+        <v>465</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B656" s="1">
+        <v>23</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D656" s="1">
+        <v>484</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B657" s="1">
+        <v>23</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D657" s="1">
+        <v>506</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B658" s="1">
+        <v>23</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D658" s="1">
+        <v>420</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B659" s="1">
+        <v>23</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D659" s="1">
+        <v>469</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B660" s="1">
+        <v>23</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D660" s="1">
+        <v>486</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B661" s="1">
+        <v>23</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D661" s="1">
+        <v>496</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B662" s="1">
+        <v>23</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D662" s="1">
+        <v>513</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B663" s="1">
+        <v>23</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D663" s="1">
+        <v>466</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B664" s="1">
+        <v>23</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D664" s="1">
+        <v>465</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F664" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B665" s="1">
+        <v>23</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D665" s="1">
+        <v>439</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B666" s="1">
+        <v>23</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D666" s="1">
+        <v>446</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F666" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B667" s="1">
+        <v>23</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D667" s="1">
+        <v>466</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F667" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B668" s="1">
+        <v>23</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D668" s="1">
+        <v>410</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F668" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B669" s="1">
+        <v>23</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D669" s="1">
+        <v>430</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F669" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B670" s="1">
+        <v>23</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D670" s="1">
+        <v>479</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B671" s="1">
+        <v>23</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D671" s="1">
+        <v>512</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B672" s="1">
+        <v>23</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D672" s="1">
+        <v>482</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B673" s="1">
+        <v>23</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D673" s="1">
+        <v>465</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F673" s="2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B674" s="1">
+        <v>23</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D674" s="1">
+        <v>417</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F674" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B675" s="1">
+        <v>24</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D675" s="1">
+        <v>380</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F675" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B676" s="1">
+        <v>24</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D676" s="1">
+        <v>474</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F676" s="2" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B677" s="1">
+        <v>24</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D677" s="1">
+        <v>557</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B678" s="1">
+        <v>24</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D678" s="1">
+        <v>533</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F678" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B679" s="1">
+        <v>24</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D679" s="1">
+        <v>435</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F679" s="2" t="s">
+        <v>1286</v>
       </c>
     </row>
   </sheetData>
